--- a/backend/public/excel/criticos.xlsx
+++ b/backend/public/excel/criticos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neru\OneDrive\Escritorio\Tablas de criticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5298EC-4EC0-4B17-8CF8-54482C1366C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94891F3-B9D7-48C0-9F90-8394AB5373CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6C323D6-314E-4F73-88FC-B8D502B63BBB}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
   <si>
-    <t>Nada.</t>
-  </si>
-  <si>
     <t>+1 punto de daño.</t>
   </si>
   <si>
@@ -69,271 +66,274 @@
     <t>simbolo</t>
   </si>
   <si>
-    <t>Golpe débil. No hay puntos de daño adicionales.</t>
-  </si>
-  <si>
-    <t>El adversario pierde el equilibrio. +5 puntos de daño. Ganas la iniciativa para el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>Ganas la iniciativa para el asalto siguiente. +1 punto de daño.</t>
-  </si>
-  <si>
-    <t>Golpe de refilón al costado del adversario. +3 puntos de daño. Ganas la iniciativa para el asalto siguiente.</t>
-  </si>
-  <si>
-    <t>El golpe da contra el costado del adversario, haciendo +6 puntos de daño. Ganas la iniciativa para el asalto siguiente.</t>
-  </si>
-  <si>
-    <t>+3 puntos de daño. El adversario deberá parar durante el siguiente asalto de combate.</t>
-  </si>
-  <si>
-    <t>+4 puntos de daño. El adversario deberá parar durante el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>El adversario deberá parar durante el siguiente asalto. +1 punto de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra un costado. +2 puntos de daño. El adversario deberá parar durante el asalto siguiente, pero con un -10.</t>
-  </si>
-  <si>
-    <t>Golpe contra un costado. +4 puntos de daño. El adversario deberá parar durante el asalto siguiente, pero con un -20.</t>
-  </si>
-  <si>
-    <t>Herida leve en un costado. El adversario lucha con un -10. +2 puntos de daño. Ganas la iniciativa el asalto siguiente.</t>
-  </si>
-  <si>
-    <t>Aturdes al adversario durante 1 asalto y no puede parar. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>El adversario debe parar durante el asalto siguiente. +2 puntos de daño. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>El adversario debe parar durante el asalto siguiente, pero con un -20. +2 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Rompes una de las costillas del adversario. +3 puntos de daño. El adversario está aturdido durante el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra el costado. El adversario está aturdido y sin poder parar durante el asalto siguiente. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario recibe una herida leve en el costado, lucha con un -10 y pierde 1 punto de daño por asalto. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida leve en la pantorrilla. El adversario pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida leve en la pantorrilla. El adversario pierde 1 punto de vida por asalto. +2 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Haces un corte en la pierna del adversario. Pierde 2 puntos de vida por asalto. +2 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Haces un corte en la parte superior de la pierna del adversario, que pierde 3 puntos de daño más. Pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte superior de la pierna. Si el adversario lleva armadura en la pierna, +5 puntos de daño. Si no lleva, +3 puntos de daño y pierde 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la espalda del adversario. +2 puntos de daño; deberá parar en el asalto siguiente con un -30.</t>
-  </si>
-  <si>
-    <t>Golpe contra la espalda del adversario. Deberá parar durante el asalto siguiente con un -30. +4 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra la espalda, que aturde al adversario durante 1 asalto. No puede parar. +3 puntos de daño y además pierde 1 punto más por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte baja de la espalda. El adversario no puede parar y está inconsciente el asalto siguiente. +3 puntos de daño y pierde 2 puntos más por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte baja de la espalda. El adversario no puede parar y está inconsciente durante el siguiente asalto. +4 puntos de daño, y pierde otros 3 por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra el pecho del adversario. Debe parar durante el asalto siguiente pero con un -25. La herida le hace perder 1 punto de vida por asalto. +2 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida leve en el pecho. El adversario pierde 1 punto de vida por asalto y debe parar durante los 2 asaltos siguientes. +3 puntos de daño el adversario lucha con un -5.</t>
-  </si>
-  <si>
-    <t>Herida leve en el pecho. +4 puntos de daño. El adversario pierde 2 puntos de vida por asalto y lucha con un -10 deberá parar durante el siguiente asalto</t>
-  </si>
-  <si>
-    <t>Herida moderada en el pecho. +5 puntos de daño. El adversario pierde 3 puntos de vida por asalto, lucha con un -15 y deberá parar durante el siguiente asalto</t>
-  </si>
-  <si>
-    <t>Herida en el pecho. El adversario pierde +4 puntos de vida por asalto lucha con un -10 y está aturdido durante 2 asaltos. +6 puntos de daño</t>
-  </si>
-  <si>
-    <t>Herida leve en el muslo. El adversario pierde 2 puntos de vida por asalto y deberá parar durante el siguiente asalto. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida leve en el muslo. El adversario pierde 2 puntos de vida por asalto. +4 puntos de daño. Deberá parar durante los 2 asaltos siguientes.</t>
-  </si>
-  <si>
-    <t>Herida leve en el muslo. El adversario pierde 2 puntos de vida por asalto. +5 puntos de daño. El adversario está aturdido durante el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>Herida moderada en el antebrazo. +6 puntos de daño. El adversario pierde 2 puntos de vida por asalto y está aturdido durante 2 asaltos.</t>
-  </si>
-  <si>
-    <t>Herida en el muslo. El adversario está aturdido durante 2 asaltos. +8 puntos de daño. Pierde 5 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida leve en el antebrazo. +3 puntos de daño. El adversario pierde 2 puntos de vida por asalto y lucha con un -10.</t>
-  </si>
-  <si>
-    <t>Herida leve en el antebrazo. El adversario está aturdido durante 1 asalto, pierde 2 puntos de vida por asalto y lucha con un -10. +4 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida moderada en el antebrazo. +4 puntos de daño. El adversario pierde 3 puntos de vida por asalto, lucha con un -10 y está aturdido durante el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>Herida moderada en el antebrazo. +4 puntos de daño. El adversario pierde 3 puntos de vida por asalto, lucha con un -10 y está aturdido durante los 2 siguientes asaltos.</t>
-  </si>
-  <si>
-    <t>Herida en el antebrazo. El adversario está aturdido durante 2 asaltos, +6 puntos de daño. Pierde 3 puntos de vida por asalto y lucha con un -15.</t>
-  </si>
-  <si>
-    <t>Destrozas el hombro del brazo en el que el adversario lleva el escudo. El brazo queda inútil. +10 a tu siguiente ataque. El adversario está aturdido durante 3 asaltos. +9 puntos de daño. Ganas la iniciativa.</t>
-  </si>
-  <si>
-    <t>Destrozas el codo del brazo en el que el adversario lleva el arma. +8 puntos de daño. El adversario está aturdido durante 4 asaltos y no puede parar durante los dos primeros asaltos.</t>
-  </si>
-  <si>
-    <t>Destrozas la rodilla del adversario, que cae al suelo. +6 puntos de daño. El adversario lucha con un -90 y se considera que ha sido derribado durante 3 asaltos (durante los cuales no puede parar).</t>
-  </si>
-  <si>
-    <t>Dejas al adversario inconsciente durante 6 horas con un golpe contra un lado de la cabeza. +15 puntos de daño. Si el adversario no lleva yelmo, muere.</t>
-  </si>
-  <si>
-    <t>Amputas el brazo del arma del adversario. +12 puntos de daño. El adversario muere después de 12 asaltos y cae al suelo de inmediato. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Haces un corte en el cuello del adversario. +6 puntos de daño queda aturdido durante 3 asaltos y no puede parar durante el siguiente.</t>
-  </si>
-  <si>
-    <t>Golpe contra la región cervical. El adversario pierde 3 puntos de vida por asalto y lucha con un -5. Le aturdes durante 2 asaltos. +7 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Haces un tajo en el cuello del adversario. Está aturdido durante 4 asaltos y no puede parar durante los 2 siguientes. +8 puntos de daño. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Haces un corte en los músculos del hombro del adversario. +5 puntos de daño, está aturdido durante 3 asaltos, y a partir de ahora lucha con un -20. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Seccionas tendones y quiebras el hueso del hombro del brazo del escudo del adversario. El brazo queda inutilizado y el adversario pierde 2 puntos de vida por asalto. Le aturdes durante 4 asaltos.</t>
-  </si>
-  <si>
-    <t>Tajo contra los tendones de la parte inferior de la pierna. El adversario lucha con un -30 y pierde 2 puntos de vida por asalto. +4 puntos de daño. Está aturdido durante 2 asaltos.</t>
-  </si>
-  <si>
-    <t>Tajo contra el músculo de la pantorrilla. El adversario está aturdido durante 3 asaltos y no puede parar durante el siguiente asalto. +6 puntos de daño, y lucha con un -40.</t>
-  </si>
-  <si>
-    <t>Tajo contra los músculos y los tendones de la parte baja de la pierna. El adversario está aturdido y sin poder parar durante 2 asaltos. +7 puntos de daño. Lucha con un -45.</t>
-  </si>
-  <si>
-    <t>Cortas los músculos y seccionas los tendones de la parte baja de la pierna. El adversario está aturdido durante 3 asaltos y no puede parar durante los 2 asaltos siguientes. Lucha con un -50.</t>
-  </si>
-  <si>
-    <t>Tajo contra la parte baja de la pierna que secciona músculos y tendones. El adversario lucha con un -70. +8 puntos de daño y está aturdido durante 6 asaltos.</t>
-  </si>
-  <si>
-    <t>Tajo contra la parte superior del brazo. +5 puntos de daño. El adversario pierde 3 puntos de vida por asalto y lucha con un -25. Está aturdido y sin poder parar durante 2 asaltos.</t>
-  </si>
-  <si>
-    <t>Tajo contra el músculo del brazo del escudo del adversario. Lucha con un -30 y pierde 3 puntos de vida por asalto. Aturdido y sin poder parar durante 2 asaltos. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Tajo contra los músculos y tendones del brazo del escudo. +9 puntos de daño. El adversario pierde 4 puntos de vida por asalto y no puede usar el brazo. Está aturdido durante 6 asaltos.</t>
-  </si>
-  <si>
-    <t>Tajo contra los músculos y tendones del brazo del arma. El brazo queda inutilizado y el adversario está aturdido durante 4 asaltos. No puede parar durante los 2 asaltos siguientes. +10 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Cortas los tendones y rompes el hueso del brazo del escudo. El brazo queda inutilizado. +12 puntos de daño. El adversario está aturdido y sin poder parar durante los 3 asaltos siguientes.</t>
-  </si>
-  <si>
-    <t>Tajo en el costado. +6 puntos de daño y herida grave. El adversario pierde 6 puntos de vida por asalto y está aturdido durante 5 asaltos. Suma +20 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Tajo en el costado. +7 puntos de daño y herida grave. El adversario pierde 6 puntos de vida por asalto. Está aturdido y sin poder parar durante los 2 asaltos siguientes.</t>
-  </si>
-  <si>
-    <t>Tajo en el costado. +8 puntos de daño. El adversario pierde 4 puntos de vida por asalto y lucha con un -20. Está aturdido y sin poder parar durante los 2 siguientes asaltos.</t>
-  </si>
-  <si>
-    <t>Herida grave en el abdomen. +10 puntos de daño. El adversario pierde 8 puntos de vida por asalto, está aturdido durante 4 asaltos y no puede parar durante los 2 siguientes asaltos. Lucha con un -10.</t>
-  </si>
-  <si>
-    <t>Amputas una mano del adversario. +5 puntos de daño. El adversario está aturdido y sin poder parar durante 12 asaltos, tras los cuales muere.</t>
-  </si>
-  <si>
-    <t>Tajo en la espalda. +8 puntos de daño. El adversario está aturdido y sin poder parar durante 2 asaltos. La herida le hace perder 2 puntos de vida por asalto. Lucha con un -10.</t>
-  </si>
-  <si>
-    <t>Golpe contra la espalda que hace que el adversario se caiga al suelo. Está aturdido y sin poder parar durante 3 asaltos. +10 puntos de daño y pierde 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la espalda, que rompe varios huesos y le hace caer al suelo. +9 puntos de daño y lucha con un -10. Está aturdido y sin poder parar durante 4 asaltos.</t>
-  </si>
-  <si>
-    <t>Amputas una mano del adversario. +6 puntos de daño. Está aturdido y sin poder parar durante 6 asaltos. Transcurridos éstos, cae al suelo y muere después de otros 6 asaltos.</t>
-  </si>
-  <si>
-    <t>Amputas una pierna del adversario. +15 puntos de daño. Cae al suelo y pierde la consciencia, para morir después de 9 asaltos. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Amputas una oreja al adversario. +3 puntos de daño pierde 3 puntos de vida por asalto y escucha con un -50. Está aturdido durante 3 asaltos y sin poder parar durante el siguiente.</t>
-  </si>
-  <si>
-    <t>Golpe contra la cadera. +7 puntos de daño y el adversario está aturdido durante 3 asaltos. No puede parar durante el siguiente, y a partir de ahora luchará con un -20. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Amputas una pierna del adversario, que cae al suelo inmediatamente y muere después de 6 asaltos por culpa del 'shock' y la pérdida de sangre. +20 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Amputas el brazo del arma del adversario, quien queda aturdido y sin poder parar durante los siguientes 9 asaltos, transcurridos los cuales se muere. +15 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Seccionas la espina dorsal del adversario. +20 puntos de daño. Cae al suelo de repente y está paralizado de cuello para abajo permanentemente.</t>
-  </si>
-  <si>
-    <t>Cortas la nariz del adversario. Herida leve. +2 puntos de daño y una cicatriz permanente. El adversario pierde 2 puntos de vida por asalto y lucha con un -30. Está aturdido durante 6 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe dirigido contra la cabeza y el cuello, que le produce una fractura de cráneo y graves daños en el cerebro. El adversario cae al suelo y muere después de 6 asaltos. +20 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Amputas el brazo del escudo del adversario, quien está aturdido y sin poder parar durante 12 asaltos. Después muere. +18 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Tajo contra el costado. +20 puntos de daño. El adversario muere en 3 asaltos debido a los graves daños ocasionados a los órganos internos y queda inconsciente de inmediato.</t>
-  </si>
-  <si>
-    <t>El golpe, dirigido contra la cabeza del adversario, destroza el cerebro. Muere instantáneamente.</t>
-  </si>
-  <si>
-    <t>Golpe dirigido contra el cuello que secciona la arteria carótida y la vena yugular. El cuello del adversario se ha roto y muere después de una agonía que dura 1 asalto.</t>
-  </si>
-  <si>
-    <t>Destripas a tu adversario, matándolo inmediatamente. Tienes una probabilidad del 25 % de que tu arma se quede clavada en su cuerpo durante el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>Destruyes los ojos del adversario. +5 puntos de daño y queda aturdido y sin poder parar durante los siguientes 30 asaltos.</t>
-  </si>
-  <si>
-    <t>El corazón ha sido destruido. Tienes una probabilidad del 25 % de que tu arma se quede clavada en el cuerpo del adversario durante 2 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra la ingle. +10 puntos de daño. Todos los órganos vitales han sido destruidos. El adversario está aturdido y sin poder parar durante 12 asaltos.</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Corte</t>
+    <t>El adversario pierde la iniciativa para el siguiente asalto. +4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe hace que el adversario pierda el equilibrio. Pierde la iniciativa durante 2 asaltos. +4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El aire se calienta. 0 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Brisa de aire caliente. +0 puntos de daño.</t>
+  </si>
+  <si>
+    <t>3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa para el siguiente asalto. Chorro de aire duro y caliente. +2 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa para el siguiente asalto. +2 puntos de daño. Calor intenso, pero con pocas consecuencias.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa para el siguiente asalto, mientras intenta recuperar el equilibrio. +3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario siente el calor, pierde la iniciativa para el siguiente asalto (o para 2 asaltos, si no tiene armadura). +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa para el siguiente asalto. El fuego a su alrededor hace que pierda 3 puntos de vida.</t>
+  </si>
+  <si>
+    <t>El golpe hace que el adversario pierda el equilibrio. Pierde la iniciativa durante 2 asaltos.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa durante 2 asaltos. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde el equilibrio y no puede parar durante el siguiente asalto. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Chorro de aire caliente que desequilibra. El adversario debe parar durante el siguiente asalto. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa durante 2 asaltos. Humo muy molesto. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Quemaduras leves. El adversario debe parar durante el siguiente asalto, perdiendo además 1 punto de vida por asalto. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Quemaduras leves. El adversario debe parar durante 2 asaltos, perdiendo además 1 punto de vida por asalto. +8 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Quemaduras leves. El adversario debe parar durante 2 asaltos, perdiendo además 2 puntos de vida por asalto. +9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario debe parar durante el siguiente asalto. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Quemaduras leves. El adversario debe parar durante el siguiente asalto. +7 puntos de daño y el adversario perderá además 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Quemaduras leves obligan al adversario a parar durante 2 asaltos. +8 puntos de daño y además perderá 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 1 asalto. +9 puntos de daño. El adversario pierde 2 puntos de vida por asalto a causa del dolor causado por las heridas.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 1 asalto. +10 puntos de daño. El adversario pierde 3 puntos de vida por asalto,  si lleva puesta una capa, ésta queda destruida.</t>
+  </si>
+  <si>
+    <t>Quemaduras leves. El adversario debe parar durante el siguiente asalto. 7 puntos de daño y pierde además 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Quemaduras leves. El adversario debe parar durante 2 asaltos. +8 puntos de daño y además pierde 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El fuego aturde al adversario durante 1 asalto. +9 puntos de daño y pierde 2 puntos de vida por asalto. Quemaduras leves.</t>
+  </si>
+  <si>
+    <t>El fuego aturde al adversario durante 1 asalto. +10 puntos de daño y pierde 3 puntos de vida por asalto. Si el adversario lleva puesto un cubrecabezas no metálico, éste queda destruido</t>
+  </si>
+  <si>
+    <t>El fuego aturde al adversario durante 2 asaltos. +12 puntos de daño y pierde 3 puntos de vida por asalto. Si el adversario está usando un arma de madera, ésta queda destruida.</t>
+  </si>
+  <si>
+    <t>El golpe hace que el adversario pierda el equilibrio. +8 puntos de daño. El adversario debe parar durante 2 asaltos y pierde 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 1 asalto. +8 puntos de daño y pierde 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 2 asaltos. Si el adversario lleva armadura en las piernas, pierde 1 punto de vida por asalto: de no tenerla, perderá 3 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 2 asaltos. Si el adversario lleva yelmo, pierde 8 puntos de vida y otros 2 por asalto. De no llevar yelmo, perderá 11 puntos de vida y otros 4 por asalto.</t>
+  </si>
+  <si>
+    <t>El adversario retrocede 1 metro. Está aturdido y sin poder parar durante 1 asalto. El calor le hace perder 3 puntos de vida por asalto. +13 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido durante 1 asalto; +9 puntos de daño. El adversario pierde la iniciativa para los 2 asaltos siguientes y pierde 2 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido durante 2 asaltos. Si el adversario lleva armadura de metal y ésta le protege las piernas, +8 puntos de daño. De lo contrario +9 puntos de daño y además perderá 3 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 2 asaltos. +10 puntos de daño. El adversario pierde 2 puntos de vida por asalto y todas las piezas de tela que cubran la espalda del adversario quedan destruidas.</t>
+  </si>
+  <si>
+    <t>Las ropas del adversario se incendian. Está aturdido y sin poder parar durante 1 asalto, perdiendo +9 puntos de vida por cada asalto en el que sus ropas se estén quemando (se tarda 2 asaltos en apagar el fuego). +12 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El fuego aturde al adversario durante 2 asaltos. +15 puntos de daño. No puede parar durante 1 asalto. Luchará con un -10 y las quemaduras hacen que pierda 3 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido durante 2 asaltos. Si lleva armadura en las piernas. +7 puntos de daño y pierde además 1 punto de daño por asalto. De lo contrario + 10 puntos de daño y perderá además 3 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido y sin poder parar durante 1 asalto. +9 puntos de daño y además pierde 2 puntas de vida por asalto. El adversario luchará con un -5 (debido a las quemaduras que tiene en las piernas).</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido y sin poder parar durante 1 asalto. +10 puntos de daño y además pierde 3 puntos de vida por asalto, luchando con un -10. Quemaduras en la parte superior de las piernas.</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido durante 2 asaltos y sin poder parar durante 1. Si tiene armadura en las piernas, + 10 puntos de daño y además pierde 4 puntos de vida por asalto. De lo contrario. +13 puntos de daño y pierde además 6 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Intenso golpe que quema las piernas del adversario. Está aturdido y sin poder parar durante 2 asaltos. Pierde 4 puntos de vida por asalto y luchará con un -10. +15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe hace que el adversario deje caer al suelo todo lo que tuviese en sus manos. Está aturdido y sin poder parar durante 2 asaltos y además luchará con un -15 (por tener quemaduras en el pecho). +9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido durante 2 asaltos. Si lleva una armadura orgánica, a partir de ahora ya no sirve para nada. + 10 puntos de daño. El adversario pierde 4 puntos de vida por asalto a causa de las quemaduras en el pecho.</t>
+  </si>
+  <si>
+    <t>Golpe contra el pecho que derriba al adversario. Si lleva armadura en el brazo, pierde 2 puntos de vida por asalto. De lo contrario, el brazo del arma ha quedado inutilizado y pierde además 4 puntos de vida por asalto. +12 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra el cuello. Si el adversario lleva armadura en el cuello, pierde 3 puntos de vida por asalto y luchará con un -10. De no tenerla, el adversario está inconsciente y pierde 10 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe contra la cabeza. Si el adversario lleva yelmo, cae al suelo inconsciente y pierde 5 puntos de vida por asalto. Dé no llevar yelmo, el adversario muere en el acto porque su cabeza se ha vaporizado por completo.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido durante 2 asaltos. Pierde 2 puntos de vida por asalto y luchará con un -5. +8 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido durante 2 asaltos y sin poder parar durante 1. Pierde 2 puntos de vida por asalto y luchará con un -10. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido durante 2 asaltos y sin poder parar durante 1. Pierde 2 puntos de vida por asalto y además luchará con un -15.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda que derriba al adversario. 15 puntos de daño. El adversario está inconsciente durante 1 asalto y pierde 3 puntos de vida por asalto. El material orgánico de su espalda ha sido destruido.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo del adversario que aguanta el escudo. Si el adversario lleva armadura en el brazo, pierde 4 puntos de vida por asalto y luchará con un -15. De no llevar armadura, el adversario pierde 5 puntos de vida por asalto y pierde el uso de ese brazo.</t>
+  </si>
+  <si>
+    <t>Un humo caliente no deja ver nada al adversario. Está aturdido y sin poder parar durante 1 asalto. + 12puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. El adversario está aturdido durante 2 asaltos y sin poder parar durante 1. Luchará con un -15. Suma +10 a tu siguiente ataque. +9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. El adversario está aturdido durante 3 asaltos. Si lleva puesta una armadura de algún material orgánico, ésta es destruida. Si carece de armadura en el pecho, el adversario pierde 6 puntos de vida por asalto y lucha con un -25.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo con el que adversario aguanta el escudo. Si lleva un escudo, lo deja caer al suelo. Si se trata de un escudo fabricado con algún material orgánico. éste queda destruido. De no llevar escudo, el adversario está aturdido durante 6 asaltos, pierde el uso del brazo y lucha con un -50.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. Si el adversario lleva una armadura que le protege el pecho. ésta es destruida. Pierde +12 puntos de vida y está aturdido durante 3 asaltos De no llevar armadura, el adversario es derribado, pierde 6 puntos de vida por asalto y lucha con un -60.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 2 asaltos y no puede parar durante 1. +10 puntos de daño. Herida en el costado que le hace perder además 2 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo: las quemaduras aturden al adversario durante 2 asaltos y le hacen perder 2 puntos de vida por asalto. Todas las prendas de tela que llevase en ese brazo son destruidas y el adversario deja caer al suelo todo lo que estuviese cogiendo con esa mano.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo con el que el adversario aguanta el escudo. Si lleva un escudo, lo deja caer al suelo. De no llevar escudo, el adversario está aturdido durante 6 asaltos, pierde el uso del brazo y lucha con un -50. Si el escudo es de material orgánico, es destruido.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la mano con la que asía el arma. Quemaduras importantes. Es posible que todos los objetos que estuviese aguantando en esa mano hayan sido destruidos. El adversario está aturdido y sin poder parar durante 3 asaltos, perdiendo además 5 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo con el que el adversario aguanta el escudo. Si lleva un escudo. éste es destruido y el adversario pierde esa mano, estando además aturdido durante 6 asaltos. De no llevar escudo. el adversario pierde ese brazo y cae al suelo inconsciente. +20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido durante 2 asaltos y lucha con un -20. Las quemaduras le hacen perder 2 puntos de vida por asalto. +8 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda, que derriba al adversario. Está aturdido durante 1 asalto y pierde 2 puntos de vida por asalto. Toda la materia orgánica de la espalda del adversario queda destruida.</t>
+  </si>
+  <si>
+    <t>Golpe en la pierna. Si el adversario lleva armadura en la pierna, pierde +2 puntos de vida por asalto y lucha con un -20. De no llevar armadura, hay daños tisulares generalizados: la pierna queda inutilizada y el adversario lucha con un -80.</t>
+  </si>
+  <si>
+    <t>El golpe quema los dos brazos y la parte superior del pecho del adversario, que pierde el uso de ambos brazos y está aturdido durante 9 asaltos. +15 puntos de daño</t>
+  </si>
+  <si>
+    <t>El adversario inhala llamas, con lo que su garganta y sus pulmones se abrasan muere después de 12 asaltos. +20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe derriba al adversario. El fuego destruye todas las protecciones orgánicas del pie y de la pantorrilla del adversario. +10 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la pierna. Todas las protecciones orgánicas de la pierna se inflaman y causarán la pérdida de 6 puntos de vida por asalto hasta que las llamas sean extinguidas ( lo que ocurrirá dentro de 1 asalto). El adversario está aturdido durante 3 asaltos. +10 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Quemaduras en la parte inferior de la pierna. El adversario pierde el pie, pero la herida queda cauterizada. Está aturdido y sin poder parar durante 6 asaltos, perdiendo +3 puntos de vida por asalto: lucha con un -85. +15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el abdomen. Si el adversario lleva una armadura que le proteja el abdomen. queda destruida el adversario cae al suelo inconsciente y pierde 2 puntos de vida por asalto. De lo contrario, el adversario muere después de 12 asaltos de no hacer nada (a causa de los daños causados a sus órganos vitales).</t>
+  </si>
+  <si>
+    <t>La mitad inferior del cuerpo del adversario está envuelta en llamas. Muere después de 9 asaltos a resultas de la pérdida masiva de órganos y tejidos. +20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El fuego abrasa la región de la cadera del adversario. Está aturdido y sin poder parar durante 2 asaltos. Lucha con un -30. +12 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la cabeza. El adversario no ve nada y lucha con un -95 durante 6 asaltos. Si no lleva yelmo, pierde 8 puntos de vida por asalto y además el 50 % de su cabellera ha desaparecido. Si lleva un yelmo fabricado con material orgánico, éste es destruido.</t>
+  </si>
+  <si>
+    <t>Quemaduras en la mitad superior de la pierna. El adversario pierde el uso de la pierna a causa de la pérdida de tejidos. Está aturdido y sin poder parar durante 6 asaltos, pierde +4 puntos de vida por asalto y lucha con un -90. +18 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la cabeza. Si el adversario lleva puesto un yelmo completo, sus ojos son destruidos y está en coma durante 2 días. De lo contrario, el adversario muere después de 2 asaltos por choque generalizado y daños cerebrales graves. +20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. Todo el material orgánico colocado sobre el cuerpo del adversario es destruido y él muere después de 6 asaltos por efectos del 'shock' y de los daños causados a sus nervios. +25 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la zona del cuello del adversario. Si lleva armadura en el cuello, está aturdido y sin poder parar durante 3 asaltos. De lo contrario,  el adversario es derribado y pierde 8 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe en el cuello que destruye la garganta del adversario. +20 puntos de daño. El adversario pierde 12 puntos de vida por asalto y no puede hacer nada durante 9 asaltos, transcurridos las cuales muere. Suma 10 a tu siguiente tirada.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. Si el adversario lleva armadura en el pecho, ésta es destruida y el adversario muere a causa de las quemaduras después de 9 asaltos. De lo contrario, la cavidad torácica del adversario se convierte en un espacio hueco lleno de cenizas y el adversario muere en el acto.</t>
+  </si>
+  <si>
+    <t>Un costado del adversario está en llamas. Muere después de 6 asaltos por múltiples fracturas compuestas, pérdida de órganos y tejidos y sangre hirviendo. +20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario se deshidrata de inmediato y se conviene en polvo. Suma +10 a tu siguiente tirada.</t>
+  </si>
+  <si>
+    <t>Terrible golpe contra la cabeza del adversario. Si lleva yelmo, cae al suelo inconsciente y pierde 7 puntos de vida por asalto. De lo contrario, el adversario está en coma durante 1 mes y pierde el 50 % de su Presencia. +15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el cuello del adversario, que fusiona las vértebras y pega la piel a las ropas. El adversario está paralizado de forma permanente. +25 puntos de daño.</t>
+  </si>
+  <si>
+    <t>La cabeza del adversario se convierte en un muñón ennegrecido, con lo que muere en el acto. Suma +10 a tu siguiente tirada.</t>
+  </si>
+  <si>
+    <t>El calor convierte en vapor la parte central del usuario, destruyendo sus ropas, su armadura y todo lo que lleve encima. El adversario se parte en dos y muere. Suma +15 a tu siguiente tirada.</t>
+  </si>
+  <si>
+    <t>Todo lo que queda del adversario son trozos de dientes y huesos achicharrados. Suma +20 a tu siguiente tirada.</t>
+  </si>
+  <si>
+    <t>Calor</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -723,14 +723,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECB416-150D-45AA-AD15-5F5F9DD0A780}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="20.109375" customWidth="1"/>
@@ -740,39 +740,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -781,27 +781,27 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
@@ -810,27 +810,27 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -839,27 +839,27 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2">
         <v>16</v>
@@ -868,27 +868,27 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -897,7 +897,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="7" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2">
         <v>26</v>
@@ -926,7 +926,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>27</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="8" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1">
         <v>31</v>
@@ -955,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>27</v>
@@ -972,10 +972,10 @@
     </row>
     <row r="9" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2">
         <v>36</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="10" spans="1:9" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1">
         <v>41</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="11" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2">
         <v>46</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="12" spans="1:9" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1">
         <v>51</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="13" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2">
         <v>56</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1">
         <v>61</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="15" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2">
         <v>66</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="16" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1">
         <v>67</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="17" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2">
         <v>71</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="18" spans="1:9" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1">
         <v>76</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="19" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2">
         <v>81</v>
@@ -1291,10 +1291,10 @@
     </row>
     <row r="20" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1">
         <v>86</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="21" spans="1:9" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2">
         <v>91</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="22" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1">
         <v>96</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="23" spans="1:9" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>

--- a/backend/public/excel/criticos.xlsx
+++ b/backend/public/excel/criticos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neru\OneDrive\Escritorio\Tablas de criticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94891F3-B9D7-48C0-9F90-8394AB5373CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB232A1-B9BF-4602-A118-0D86CADF3CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6C323D6-314E-4F73-88FC-B8D502B63BBB}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
-  <si>
-    <t>+1 punto de daño.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="97">
   <si>
     <t>Start</t>
   </si>
@@ -36,304 +33,289 @@
     <t>End</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>+2 puntos de daño.</t>
-  </si>
-  <si>
-    <t>+3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>+4 puntos de daño.</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>tipo</t>
   </si>
   <si>
     <t>simbolo</t>
   </si>
   <si>
-    <t>El adversario pierde la iniciativa para el siguiente asalto. +4 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El golpe hace que el adversario pierda el equilibrio. Pierde la iniciativa durante 2 asaltos. +4 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El aire se calienta. 0 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Brisa de aire caliente. +0 puntos de daño.</t>
-  </si>
-  <si>
-    <t>3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario pierde la iniciativa para el siguiente asalto. Chorro de aire duro y caliente. +2 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario pierde la iniciativa para el siguiente asalto. +2 puntos de daño. Calor intenso, pero con pocas consecuencias.</t>
-  </si>
-  <si>
-    <t>El adversario pierde la iniciativa para el siguiente asalto, mientras intenta recuperar el equilibrio. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario siente el calor, pierde la iniciativa para el siguiente asalto (o para 2 asaltos, si no tiene armadura). +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario pierde la iniciativa para el siguiente asalto. El fuego a su alrededor hace que pierda 3 puntos de vida.</t>
-  </si>
-  <si>
-    <t>El golpe hace que el adversario pierda el equilibrio. Pierde la iniciativa durante 2 asaltos.</t>
-  </si>
-  <si>
-    <t>El adversario pierde la iniciativa durante 2 asaltos. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario pierde el equilibrio y no puede parar durante el siguiente asalto. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Chorro de aire caliente que desequilibra. El adversario debe parar durante el siguiente asalto. +7 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario pierde la iniciativa durante 2 asaltos. Humo muy molesto. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Quemaduras leves. El adversario debe parar durante el siguiente asalto, perdiendo además 1 punto de vida por asalto. +7 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Quemaduras leves. El adversario debe parar durante 2 asaltos, perdiendo además 1 punto de vida por asalto. +8 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Quemaduras leves. El adversario debe parar durante 2 asaltos, perdiendo además 2 puntos de vida por asalto. +9 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario debe parar durante el siguiente asalto. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Quemaduras leves. El adversario debe parar durante el siguiente asalto. +7 puntos de daño y el adversario perderá además 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Quemaduras leves obligan al adversario a parar durante 2 asaltos. +8 puntos de daño y además perderá 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>El golpe aturde al adversario durante 1 asalto. +9 puntos de daño. El adversario pierde 2 puntos de vida por asalto a causa del dolor causado por las heridas.</t>
-  </si>
-  <si>
-    <t>El golpe aturde al adversario durante 1 asalto. +10 puntos de daño. El adversario pierde 3 puntos de vida por asalto,  si lleva puesta una capa, ésta queda destruida.</t>
-  </si>
-  <si>
-    <t>Quemaduras leves. El adversario debe parar durante el siguiente asalto. 7 puntos de daño y pierde además 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Quemaduras leves. El adversario debe parar durante 2 asaltos. +8 puntos de daño y además pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>El fuego aturde al adversario durante 1 asalto. +9 puntos de daño y pierde 2 puntos de vida por asalto. Quemaduras leves.</t>
-  </si>
-  <si>
-    <t>El fuego aturde al adversario durante 1 asalto. +10 puntos de daño y pierde 3 puntos de vida por asalto. Si el adversario lleva puesto un cubrecabezas no metálico, éste queda destruido</t>
-  </si>
-  <si>
-    <t>El fuego aturde al adversario durante 2 asaltos. +12 puntos de daño y pierde 3 puntos de vida por asalto. Si el adversario está usando un arma de madera, ésta queda destruida.</t>
-  </si>
-  <si>
-    <t>El golpe hace que el adversario pierda el equilibrio. +8 puntos de daño. El adversario debe parar durante 2 asaltos y pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>El golpe aturde al adversario durante 1 asalto. +8 puntos de daño y pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>El golpe aturde al adversario durante 2 asaltos. Si el adversario lleva armadura en las piernas, pierde 1 punto de vida por asalto: de no tenerla, perderá 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>El golpe aturde al adversario durante 2 asaltos. Si el adversario lleva yelmo, pierde 8 puntos de vida y otros 2 por asalto. De no llevar yelmo, perderá 11 puntos de vida y otros 4 por asalto.</t>
-  </si>
-  <si>
-    <t>El adversario retrocede 1 metro. Está aturdido y sin poder parar durante 1 asalto. El calor le hace perder 3 puntos de vida por asalto. +13 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario está aturdido durante 1 asalto; +9 puntos de daño. El adversario pierde la iniciativa para los 2 asaltos siguientes y pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>El adversario está aturdido durante 2 asaltos. Si el adversario lleva armadura de metal y ésta le protege las piernas, +8 puntos de daño. De lo contrario +9 puntos de daño y además perderá 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>El golpe aturde al adversario durante 2 asaltos. +10 puntos de daño. El adversario pierde 2 puntos de vida por asalto y todas las piezas de tela que cubran la espalda del adversario quedan destruidas.</t>
-  </si>
-  <si>
-    <t>Las ropas del adversario se incendian. Está aturdido y sin poder parar durante 1 asalto, perdiendo +9 puntos de vida por cada asalto en el que sus ropas se estén quemando (se tarda 2 asaltos en apagar el fuego). +12 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El fuego aturde al adversario durante 2 asaltos. +15 puntos de daño. No puede parar durante 1 asalto. Luchará con un -10 y las quemaduras hacen que pierda 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>El adversario está aturdido durante 2 asaltos. Si lleva armadura en las piernas. +7 puntos de daño y pierde además 1 punto de daño por asalto. De lo contrario + 10 puntos de daño y perderá además 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>El adversario está aturdido y sin poder parar durante 1 asalto. +9 puntos de daño y además pierde 2 puntas de vida por asalto. El adversario luchará con un -5 (debido a las quemaduras que tiene en las piernas).</t>
-  </si>
-  <si>
-    <t>El adversario está aturdido y sin poder parar durante 1 asalto. +10 puntos de daño y además pierde 3 puntos de vida por asalto, luchando con un -10. Quemaduras en la parte superior de las piernas.</t>
-  </si>
-  <si>
-    <t>El adversario está aturdido durante 2 asaltos y sin poder parar durante 1. Si tiene armadura en las piernas, + 10 puntos de daño y además pierde 4 puntos de vida por asalto. De lo contrario. +13 puntos de daño y pierde además 6 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Intenso golpe que quema las piernas del adversario. Está aturdido y sin poder parar durante 2 asaltos. Pierde 4 puntos de vida por asalto y luchará con un -10. +15 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El golpe hace que el adversario deje caer al suelo todo lo que tuviese en sus manos. Está aturdido y sin poder parar durante 2 asaltos y además luchará con un -15 (por tener quemaduras en el pecho). +9 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario está aturdido durante 2 asaltos. Si lleva una armadura orgánica, a partir de ahora ya no sirve para nada. + 10 puntos de daño. El adversario pierde 4 puntos de vida por asalto a causa de las quemaduras en el pecho.</t>
-  </si>
-  <si>
-    <t>Golpe contra el pecho que derriba al adversario. Si lleva armadura en el brazo, pierde 2 puntos de vida por asalto. De lo contrario, el brazo del arma ha quedado inutilizado y pierde además 4 puntos de vida por asalto. +12 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el cuello. Si el adversario lleva armadura en el cuello, pierde 3 puntos de vida por asalto y luchará con un -10. De no tenerla, el adversario está inconsciente y pierde 10 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la cabeza. Si el adversario lleva yelmo, cae al suelo inconsciente y pierde 5 puntos de vida por asalto. Dé no llevar yelmo, el adversario muere en el acto porque su cabeza se ha vaporizado por completo.</t>
-  </si>
-  <si>
-    <t>Golpe en la espalda. El adversario está aturdido durante 2 asaltos. Pierde 2 puntos de vida por asalto y luchará con un -5. +8 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en la espalda. El adversario está aturdido durante 2 asaltos y sin poder parar durante 1. Pierde 2 puntos de vida por asalto y luchará con un -10. +7 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en la espalda. El adversario está aturdido durante 2 asaltos y sin poder parar durante 1. Pierde 2 puntos de vida por asalto y además luchará con un -15.</t>
-  </si>
-  <si>
-    <t>Golpe en la espalda que derriba al adversario. 15 puntos de daño. El adversario está inconsciente durante 1 asalto y pierde 3 puntos de vida por asalto. El material orgánico de su espalda ha sido destruido.</t>
-  </si>
-  <si>
-    <t>Golpe en el brazo del adversario que aguanta el escudo. Si el adversario lleva armadura en el brazo, pierde 4 puntos de vida por asalto y luchará con un -15. De no llevar armadura, el adversario pierde 5 puntos de vida por asalto y pierde el uso de ese brazo.</t>
-  </si>
-  <si>
-    <t>Un humo caliente no deja ver nada al adversario. Está aturdido y sin poder parar durante 1 asalto. + 12puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en el pecho. El adversario está aturdido durante 2 asaltos y sin poder parar durante 1. Luchará con un -15. Suma +10 a tu siguiente ataque. +9 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en el pecho. El adversario está aturdido durante 3 asaltos. Si lleva puesta una armadura de algún material orgánico, ésta es destruida. Si carece de armadura en el pecho, el adversario pierde 6 puntos de vida por asalto y lucha con un -25.</t>
-  </si>
-  <si>
-    <t>Golpe en el brazo con el que adversario aguanta el escudo. Si lleva un escudo, lo deja caer al suelo. Si se trata de un escudo fabricado con algún material orgánico. éste queda destruido. De no llevar escudo, el adversario está aturdido durante 6 asaltos, pierde el uso del brazo y lucha con un -50.</t>
-  </si>
-  <si>
-    <t>Golpe en el pecho. Si el adversario lleva una armadura que le protege el pecho. ésta es destruida. Pierde +12 puntos de vida y está aturdido durante 3 asaltos De no llevar armadura, el adversario es derribado, pierde 6 puntos de vida por asalto y lucha con un -60.</t>
-  </si>
-  <si>
-    <t>El golpe aturde al adversario durante 2 asaltos y no puede parar durante 1. +10 puntos de daño. Herida en el costado que le hace perder además 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe en el brazo: las quemaduras aturden al adversario durante 2 asaltos y le hacen perder 2 puntos de vida por asalto. Todas las prendas de tela que llevase en ese brazo son destruidas y el adversario deja caer al suelo todo lo que estuviese cogiendo con esa mano.</t>
-  </si>
-  <si>
-    <t>Golpe en el brazo con el que el adversario aguanta el escudo. Si lleva un escudo, lo deja caer al suelo. De no llevar escudo, el adversario está aturdido durante 6 asaltos, pierde el uso del brazo y lucha con un -50. Si el escudo es de material orgánico, es destruido.</t>
-  </si>
-  <si>
-    <t>El adversario pierde la mano con la que asía el arma. Quemaduras importantes. Es posible que todos los objetos que estuviese aguantando en esa mano hayan sido destruidos. El adversario está aturdido y sin poder parar durante 3 asaltos, perdiendo además 5 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe en el brazo con el que el adversario aguanta el escudo. Si lleva un escudo. éste es destruido y el adversario pierde esa mano, estando además aturdido durante 6 asaltos. De no llevar escudo. el adversario pierde ese brazo y cae al suelo inconsciente. +20 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en la espalda. El adversario está aturdido durante 2 asaltos y lucha con un -20. Las quemaduras le hacen perder 2 puntos de vida por asalto. +8 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en la espalda, que derriba al adversario. Está aturdido durante 1 asalto y pierde 2 puntos de vida por asalto. Toda la materia orgánica de la espalda del adversario queda destruida.</t>
-  </si>
-  <si>
-    <t>Golpe en la pierna. Si el adversario lleva armadura en la pierna, pierde +2 puntos de vida por asalto y lucha con un -20. De no llevar armadura, hay daños tisulares generalizados: la pierna queda inutilizada y el adversario lucha con un -80.</t>
-  </si>
-  <si>
-    <t>El golpe quema los dos brazos y la parte superior del pecho del adversario, que pierde el uso de ambos brazos y está aturdido durante 9 asaltos. +15 puntos de daño</t>
-  </si>
-  <si>
-    <t>El adversario inhala llamas, con lo que su garganta y sus pulmones se abrasan muere después de 12 asaltos. +20 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El golpe derriba al adversario. El fuego destruye todas las protecciones orgánicas del pie y de la pantorrilla del adversario. +10 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en la pierna. Todas las protecciones orgánicas de la pierna se inflaman y causarán la pérdida de 6 puntos de vida por asalto hasta que las llamas sean extinguidas ( lo que ocurrirá dentro de 1 asalto). El adversario está aturdido durante 3 asaltos. +10 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Quemaduras en la parte inferior de la pierna. El adversario pierde el pie, pero la herida queda cauterizada. Está aturdido y sin poder parar durante 6 asaltos, perdiendo +3 puntos de vida por asalto: lucha con un -85. +15 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en el abdomen. Si el adversario lleva una armadura que le proteja el abdomen. queda destruida el adversario cae al suelo inconsciente y pierde 2 puntos de vida por asalto. De lo contrario, el adversario muere después de 12 asaltos de no hacer nada (a causa de los daños causados a sus órganos vitales).</t>
-  </si>
-  <si>
-    <t>La mitad inferior del cuerpo del adversario está envuelta en llamas. Muere después de 9 asaltos a resultas de la pérdida masiva de órganos y tejidos. +20 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El fuego abrasa la región de la cadera del adversario. Está aturdido y sin poder parar durante 2 asaltos. Lucha con un -30. +12 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en la cabeza. El adversario no ve nada y lucha con un -95 durante 6 asaltos. Si no lleva yelmo, pierde 8 puntos de vida por asalto y además el 50 % de su cabellera ha desaparecido. Si lleva un yelmo fabricado con material orgánico, éste es destruido.</t>
-  </si>
-  <si>
-    <t>Quemaduras en la mitad superior de la pierna. El adversario pierde el uso de la pierna a causa de la pérdida de tejidos. Está aturdido y sin poder parar durante 6 asaltos, pierde +4 puntos de vida por asalto y lucha con un -90. +18 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en la cabeza. Si el adversario lleva puesto un yelmo completo, sus ojos son destruidos y está en coma durante 2 días. De lo contrario, el adversario muere después de 2 asaltos por choque generalizado y daños cerebrales graves. +20 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en el pecho. Todo el material orgánico colocado sobre el cuerpo del adversario es destruido y él muere después de 6 asaltos por efectos del 'shock' y de los daños causados a sus nervios. +25 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en la zona del cuello del adversario. Si lleva armadura en el cuello, está aturdido y sin poder parar durante 3 asaltos. De lo contrario,  el adversario es derribado y pierde 8 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe en el cuello que destruye la garganta del adversario. +20 puntos de daño. El adversario pierde 12 puntos de vida por asalto y no puede hacer nada durante 9 asaltos, transcurridos las cuales muere. Suma 10 a tu siguiente tirada.</t>
-  </si>
-  <si>
-    <t>Golpe en el pecho. Si el adversario lleva armadura en el pecho, ésta es destruida y el adversario muere a causa de las quemaduras después de 9 asaltos. De lo contrario, la cavidad torácica del adversario se convierte en un espacio hueco lleno de cenizas y el adversario muere en el acto.</t>
-  </si>
-  <si>
-    <t>Un costado del adversario está en llamas. Muere después de 6 asaltos por múltiples fracturas compuestas, pérdida de órganos y tejidos y sangre hirviendo. +20 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario se deshidrata de inmediato y se conviene en polvo. Suma +10 a tu siguiente tirada.</t>
-  </si>
-  <si>
-    <t>Terrible golpe contra la cabeza del adversario. Si lleva yelmo, cae al suelo inconsciente y pierde 7 puntos de vida por asalto. De lo contrario, el adversario está en coma durante 1 mes y pierde el 50 % de su Presencia. +15 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe en el cuello del adversario, que fusiona las vértebras y pega la piel a las ropas. El adversario está paralizado de forma permanente. +25 puntos de daño.</t>
-  </si>
-  <si>
-    <t>La cabeza del adversario se convierte en un muñón ennegrecido, con lo que muere en el acto. Suma +10 a tu siguiente tirada.</t>
-  </si>
-  <si>
-    <t>El calor convierte en vapor la parte central del usuario, destruyendo sus ropas, su armadura y todo lo que lleve encima. El adversario se parte en dos y muere. Suma +15 a tu siguiente tirada.</t>
-  </si>
-  <si>
-    <t>Todo lo que queda del adversario son trozos de dientes y huesos achicharrados. Suma +20 a tu siguiente tirada.</t>
-  </si>
-  <si>
-    <t>Calor</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>12 puntos de daño. Tu arma se rompe</t>
+  </si>
+  <si>
+    <t>15 puntos de daño. Fallas con tu arma y debes parar al siguiente asalto.</t>
+  </si>
+  <si>
+    <t>18 puntos de daño. Tu movimiento es desastroso y pierdes Ia iniciativa para el asalto siguiente.</t>
+  </si>
+  <si>
+    <t>20 puntos de daño, pero el ataque no ha sido bueno. Resta 10 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>+5 puntos de daño</t>
+  </si>
+  <si>
+    <t>+3 puntos de daño</t>
+  </si>
+  <si>
+    <t>+4 puntos de daño</t>
+  </si>
+  <si>
+    <t>+5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>+9 puntos de daño</t>
+  </si>
+  <si>
+    <t>+10 puntos de daño</t>
+  </si>
+  <si>
+    <t>+6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>+8 puntos de daño</t>
+  </si>
+  <si>
+    <t>+12 puntos de daño</t>
+  </si>
+  <si>
+    <t>+15 puntos de daño</t>
+  </si>
+  <si>
+    <t>+9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>+20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>+18 puntos de daño</t>
+  </si>
+  <si>
+    <t>+20 puntos de daño</t>
+  </si>
+  <si>
+    <t>+25 puntos de daño</t>
+  </si>
+  <si>
+    <t>+30 puntos de daño.</t>
+  </si>
+  <si>
+    <t>+ 15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>+ 18 puntos de daño.</t>
+  </si>
+  <si>
+    <t>+30 puntos de daño</t>
+  </si>
+  <si>
+    <t>Herida leve. +12 puntos de daño. El adversario pierde 5 puntos de vida por asalto y está obligado a parar durante un asalto. Sumo 10 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>+25 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Herida leve. +10 puntos de daño. El adversario pierde 3 puntos de vida por asalto y está obligado a parar durante el siguiente asalto. Has ganado la iniciativa para los tres asaltos siguientes.</t>
+  </si>
+  <si>
+    <t>Fuerte golpe de plano +15 puntos de daño y el adversario vacila. Está aturdido, y no puede parar en el siguiente asalto.</t>
+  </si>
+  <si>
+    <t>Certero golpe al cuello del adversario. que secciona la yugular.  15 puntos de daño y muere en 6 asaltos. durante los cuales no puede hacer nada</t>
+  </si>
+  <si>
+    <t>Golpe cruel dirigido o la región abdominal, que destruye una serie de órganos importantes. El adversario cae y muere en 3 asaltos. +30 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe que llega al corazón del adversario. + 12 puntos de daño y muere instantáneamente. Suma  10 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>Ataque inspirado que acierta al adversario en los ojos. +20 puntos de daño y muere instantáneamente. Aún dispones de medio asalto para actuar.</t>
+  </si>
+  <si>
+    <t>El ataque atraviesa la oreja del adversario y destroza su cerebro, muriendo en el acto Suma +10 a lodos los ataques de tus amigos en el siguiente asalto.</t>
+  </si>
+  <si>
+    <t>25 puntos de daño</t>
+  </si>
+  <si>
+    <t>30 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Herida leve. +15 puntos de daño. El adversario está aturdido durante 2 asaltos y lucha con un -20 Suma +11 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>Buen golpe. +20 puntos de daño. El adversario está aturdido y no puede parar durante 2 asaltos. Suma 10 a tu siguiente ataque</t>
+  </si>
+  <si>
+    <t>El arma atraviesa el corazón del adversario. +20 puntos de daño y muere inmediatamente. Suma +10 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>Herida leve. +30 puntos de daño. El adversario está aturdido durante 3 asaltos, y no puede hacer paradas en el siguiente asalto.</t>
+  </si>
+  <si>
+    <t>Buen Golpe. +20 puntos de daño El adversario está aturdido y no puede parar durante 2 asaltos y además, debido a la herida, pierde 3 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe dirigido contra una pierna del adversario. +9 puntos de daño. El adversario está aturdido y no puede parar durante 1 asalto. Tiene un -10 y pierde 3 puntos de vida por asalto</t>
+  </si>
+  <si>
+    <t>Destrozas el hombro del brazo en el que el adversario tenía el arma + 15 puntos de daño y está aturdido durante 3 asaltos. Ahora tiene un brazo inútil.</t>
+  </si>
+  <si>
+    <t>Fuerte golpe que hace que el adversario se tambalee. +20 puntos de daño. Está aturdido y no puede parar durante 2 asaltos. Suma +5 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>Fuerte golpe que aturde al adversario durante 3 asaltos. No puede parar en el asalto siguiente. 22 puntos de daño. Suma +10 a tu siguiente ataque</t>
+  </si>
+  <si>
+    <t>Golpe contra una de las piernas del adversario +15 puntos de daño. Queda aturdido durante 2 asaltos y lucha con un -20, además de perder 2 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe contra la frente del adversario. Si no lleva yelmo, muere. Si el adversario lo lleva, queda inconsciente. +30 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe que da en el pecho del adversario y destruye su corazón. +25 puntos de daño y muere en el acto. Suma +15 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>Golpe dirigido contra la pierna del adversario que le causa 18 puntos de daño. Pierde 5 puntos de vida por asalto y lucha con un -10 además de estar aturdido durante 3 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe contra la cara del adversario +5 puntos de daño. Pierde 3 puntos de vida por asalto y lucha con un -25. Suma 20 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>Golpe contra la cabeza del adversario +30 puntos de daño y pierde la consciencia. Suma +10 a todos los ataques de los personajes de tu mismo bando.</t>
+  </si>
+  <si>
+    <t>Golpe dirigido contra el pecho del adversario, que secciona una vena.  Queda aturdido durante 2 asaltos y cae inconsciente, muriendo después de 5 asaltos.</t>
+  </si>
+  <si>
+    <t>Seccionas una de las arterias de una pierna del adversario. +10 puntos de daño. El adversario muere después de no haber podido haca nada en 12 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe que alcanza al adversario en el coraron. Muere instantáneamente y cae encima tuyo. Pierdes 20 puntos de vida y estás inmovilizado durante 6 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe que atraviesa los dos pulmones del adversario, que muere en 3 asaltos. Tu arma se ha quedado clavada en su cuerpo durante 12 asaltos. 25 puntos de daño</t>
+  </si>
+  <si>
+    <t>Golpe que da al adversario en la nariz, y el hueso de ésta penetra en el cerebro. Muere instantáneamente y aun dispones de medio asalto para actuar.</t>
+  </si>
+  <si>
+    <t>Golpe que atraviesa el oido del adversario, que pierde 15 puntos de vida. Muere durante el asalto siguiente Suma +25 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>El daño destroza el cráneo del adversario. +30 puntos de daño y muere instantáneamente. Un trozo del cráneo sale disparado a 3 m de distancia</t>
+  </si>
+  <si>
+    <t>Golpe que atraviesa los pulmones del adversario: éste cae y muere en 6 asaltos. 24 puntos de daño. Suma +20 a todos los ataques de los personajes del mismo bando del atacante.</t>
+  </si>
+  <si>
+    <t>Golpe de plano. El adversario pierde +35 puntos de vida, está aturdido durante 1 asalto y no puede parar. Tu arma se rompe.</t>
+  </si>
+  <si>
+    <t>Golpe que acierta al adversario en el cuello. +20 puntos de daño. Queda aturdido y no puede parar durante 6 asaltos, tras los cuales muere. Tu arma permanece clavada en el cuerpo durante 2 asaltos</t>
+  </si>
+  <si>
+    <t>E! adversario pierde la vista. Está aturdido y no puede parar durante 2 asaltos, 5 puntos de daño y lucha con un -100</t>
+  </si>
+  <si>
+    <t>El golpe atraviesa la mejilla del adversario, que muere inmediatamente. 15 puntos de daño, pero tu arma permanece clavada en el hueso durante 2 asaltos.</t>
+  </si>
+  <si>
+    <t>Un golpe terrible. +50 puntos de daño. El adversario está aturdido durante 3 asaltos y no puede parar. Luchara con un -20.</t>
+  </si>
+  <si>
+    <t>El arma golpea uno de los lados de la cabeza del adversario, que cae inconsciente +20 puntos de daño y queda inconsciente durante 3 horas. Suma +10 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>Golpe que destroza la mandíbula del adversario y le deja inconsciente +60 puntos de daño y queda en coma durante 30 días.</t>
+  </si>
+  <si>
+    <t>Destrozas una de las rodillas del adversario, que pierde 2 puntos de vida por asalto, lucha con un  -30  y queda aturdido durante 3 asaltos.</t>
+  </si>
+  <si>
+    <t>Seccionas una de las venas del antebrazo del adversario. Esta aturdido y no puede parar durante 6 asaltos, y después muere +20 puntos de daño</t>
+  </si>
+  <si>
+    <t>Golpe que hace que astillas de hueso atraviesen el hígado y los riñones. El adversario cae después de haber perdido 40 puntos de vida. A continuación muere.</t>
+  </si>
+  <si>
+    <t>El golpe hace que los restos de la mandíbula del adversario penetren en su cerebro, muriendo instantáneamente. Aún dispones de medio asalto para actuar.</t>
+  </si>
+  <si>
+    <t>Golpe dirigido contra el abdomen del adversario, que destruye una serie de órganos importantes. El adversario se derrumba y muere después de 6 asaltos. +30 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El arma atraviesa la mejilla del adversario. + 10 puntos de daño y muere inmediatamente. Aún dispones de medio asalto para actuar</t>
+  </si>
+  <si>
+    <t>Golpe contra el cuello del adversario. que muere instantáneamente. +25 puntos de daño. Suma + 10 a tu siguiente ataque</t>
+  </si>
+  <si>
+    <t>Golpe al vientre que alcanza los intestinos del adversario. Cae al suelo y muere en 12 asaltos +35 puntos de daño. Suma + 15 a tu siguiente ataque</t>
+  </si>
+  <si>
+    <t>El golpe atraviesa el oído del adversario, con lo que este muere. + 10 puntos de daño. Para el siguiente asalto, suma +20 a los ataques de todos los personajes de tu mismo bando.</t>
+  </si>
+  <si>
+    <t>El ataque secciona una arteria en una pierna del adversario, quien lucha con un -20 durante 2 asaltos, y acto seguido se cae. No puede hacer nada y muere, en 6 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe que secciona la medula espinal del adversario +20 puntos de daño, cae de inmediato y queda paralizado de cintura para abajo.</t>
+  </si>
+  <si>
+    <t>El ataque atraviesa el ojo del adversario, que muere instantánea mente. 15 puntos de daño. Suma +20 a tu siguiente ataque. Aún dispones de medio asalto para actuar.</t>
+  </si>
+  <si>
+    <t>Golpe dirigido contra el antebrazo del adversario que secciona una arteria y le aturde durante 6 asaltos. En el séptimo asalto el adversario se desmaya y cae muriendo a continuación +15 puntos de daño</t>
+  </si>
+  <si>
+    <t>EI golpe secciona la médula espinal del adversario. 15 puntos de daño. Está paralizado del cuello paro abajo, pero tu arma se ha partido en dos.</t>
+  </si>
+  <si>
+    <t>Golpe que destroza el corazón del adversario. +20 puntos de daño y muere de inmediato. Suma +15 a todos los ataques de los personajes de tu mismo bando durante los dos asaltos siguientes.</t>
+  </si>
+  <si>
+    <t>El arma se clava en el corazón del adversario. +25 puntos de daño y se muere. Suma +20 a todos los ataques de los personajes de tu mismo bando durante los 3 asaltos siguientes.</t>
+  </si>
+  <si>
+    <t>El golpe atraviesa la cabeza del adversario, que muere instantáneamente. Esta acción se deberá aplicar  también contra cualquier otro adversario cercano (para este mismo asalto).</t>
+  </si>
+  <si>
+    <t>Golpe muy fuerte de plano. 35 puntos de daño. El adversario está aturdido y no puede parar durante 3 asaltos. Por desgracia tú quedas inconsciente.</t>
+  </si>
+  <si>
+    <t>El arma atraviesa el ojo del adversario, que muere inmediatamente. +20 puntos de daño. Suma +25 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>El adversario se queda ciego como consecuencia del ataque y lucha con un -100. 10 puntos de daño y está aturdido durante 6 asaltos.</t>
+  </si>
+  <si>
+    <t>El ataque rompe las costillas, cuyos fragmentos perforan el pulmón. 30 puntos de daño. El adversario queda inconsciente. Tu arma está clavada en el cuerpo del adversario</t>
+  </si>
+  <si>
+    <t>Dos golpes propinados con el arma hacen que el adversario pierda la vista. +6 puntos de daño. El adversario está aturdido y no puede parar durante 24 asaltos.</t>
+  </si>
+  <si>
+    <t>Grandes criaturas</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>magica</t>
+  </si>
+  <si>
+    <t>mithril</t>
+  </si>
+  <si>
+    <t>arma sagrada</t>
+  </si>
+  <si>
+    <t>especial</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -369,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -392,11 +374,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -406,6 +412,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECB416-150D-45AA-AD15-5F5F9DD0A780}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,39 +761,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -781,27 +802,27 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
@@ -810,16 +831,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
@@ -827,10 +848,10 @@
     </row>
     <row r="4" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -839,27 +860,27 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2">
         <v>16</v>
@@ -868,27 +889,27 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -897,27 +918,27 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2">
         <v>26</v>
@@ -926,27 +947,27 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1">
         <v>31</v>
@@ -955,27 +976,27 @@
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2">
         <v>36</v>
@@ -984,27 +1005,27 @@
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1">
         <v>41</v>
@@ -1013,27 +1034,27 @@
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2">
         <v>46</v>
@@ -1042,27 +1063,27 @@
         <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1">
         <v>51</v>
@@ -1070,28 +1091,28 @@
       <c r="D12" s="1">
         <v>55</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2">
         <v>56</v>
@@ -1099,28 +1120,28 @@
       <c r="D13" s="2">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1">
         <v>61</v>
@@ -1128,28 +1149,28 @@
       <c r="D14" s="1">
         <v>65</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
+      <c r="E14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2">
         <v>66</v>
@@ -1158,27 +1179,27 @@
         <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1">
         <v>67</v>
@@ -1187,27 +1208,27 @@
         <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2">
         <v>71</v>
@@ -1216,27 +1237,27 @@
         <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1">
         <v>76</v>
@@ -1245,27 +1266,27 @@
         <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2">
         <v>81</v>
@@ -1274,27 +1295,27 @@
         <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1">
         <v>86</v>
@@ -1303,27 +1324,27 @@
         <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2">
         <v>91</v>
@@ -1332,27 +1353,27 @@
         <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1">
         <v>96</v>
@@ -1361,27 +1382,27 @@
         <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
@@ -1390,19 +1411,164 @@
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="7">
+        <v>101</v>
+      </c>
+      <c r="D24" s="7">
+        <v>150</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="8">
+        <v>151</v>
+      </c>
+      <c r="D25" s="8">
+        <v>175</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="7">
+        <v>176</v>
+      </c>
+      <c r="D26" s="7">
+        <v>200</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="8">
+        <v>201</v>
+      </c>
+      <c r="D27" s="8">
+        <v>250</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="7">
+        <v>251</v>
+      </c>
+      <c r="D28" s="7">
+        <v>251</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/public/excel/criticos.xlsx
+++ b/backend/public/excel/criticos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neru\OneDrive\Escritorio\Tablas de criticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB232A1-B9BF-4602-A118-0D86CADF3CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C512FD5E-FB40-4F31-A50A-B5ADE854B17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6C323D6-314E-4F73-88FC-B8D502B63BBB}"/>
   </bookViews>
@@ -25,7 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+  <si>
+    <t>Nada.</t>
+  </si>
+  <si>
+    <t>+1 punto de daño.</t>
+  </si>
   <si>
     <t>Start</t>
   </si>
@@ -33,289 +39,256 @@
     <t>End</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>+2 puntos de daño.</t>
+  </si>
+  <si>
+    <t>+3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>+4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>tipo</t>
   </si>
   <si>
     <t>simbolo</t>
   </si>
   <si>
-    <t>12 puntos de daño. Tu arma se rompe</t>
-  </si>
-  <si>
-    <t>15 puntos de daño. Fallas con tu arma y debes parar al siguiente asalto.</t>
-  </si>
-  <si>
-    <t>18 puntos de daño. Tu movimiento es desastroso y pierdes Ia iniciativa para el asalto siguiente.</t>
-  </si>
-  <si>
-    <t>20 puntos de daño, pero el ataque no ha sido bueno. Resta 10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>+5 puntos de daño</t>
-  </si>
-  <si>
-    <t>+3 puntos de daño</t>
-  </si>
-  <si>
-    <t>+4 puntos de daño</t>
-  </si>
-  <si>
-    <t>+5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>+9 puntos de daño</t>
-  </si>
-  <si>
-    <t>+10 puntos de daño</t>
-  </si>
-  <si>
-    <t>+6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>+8 puntos de daño</t>
-  </si>
-  <si>
-    <t>+12 puntos de daño</t>
-  </si>
-  <si>
-    <t>+15 puntos de daño</t>
-  </si>
-  <si>
-    <t>+9 puntos de daño.</t>
-  </si>
-  <si>
-    <t>+20 puntos de daño.</t>
-  </si>
-  <si>
-    <t>+18 puntos de daño</t>
-  </si>
-  <si>
-    <t>+20 puntos de daño</t>
-  </si>
-  <si>
-    <t>+25 puntos de daño</t>
-  </si>
-  <si>
-    <t>+30 puntos de daño.</t>
-  </si>
-  <si>
-    <t>+ 15 puntos de daño.</t>
-  </si>
-  <si>
-    <t>+ 18 puntos de daño.</t>
-  </si>
-  <si>
-    <t>+30 puntos de daño</t>
-  </si>
-  <si>
-    <t>Herida leve. +12 puntos de daño. El adversario pierde 5 puntos de vida por asalto y está obligado a parar durante un asalto. Sumo 10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>+25 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida leve. +10 puntos de daño. El adversario pierde 3 puntos de vida por asalto y está obligado a parar durante el siguiente asalto. Has ganado la iniciativa para los tres asaltos siguientes.</t>
-  </si>
-  <si>
-    <t>Fuerte golpe de plano +15 puntos de daño y el adversario vacila. Está aturdido, y no puede parar en el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>Certero golpe al cuello del adversario. que secciona la yugular.  15 puntos de daño y muere en 6 asaltos. durante los cuales no puede hacer nada</t>
-  </si>
-  <si>
-    <t>Golpe cruel dirigido o la región abdominal, que destruye una serie de órganos importantes. El adversario cae y muere en 3 asaltos. +30 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe que llega al corazón del adversario. + 12 puntos de daño y muere instantáneamente. Suma  10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Ataque inspirado que acierta al adversario en los ojos. +20 puntos de daño y muere instantáneamente. Aún dispones de medio asalto para actuar.</t>
-  </si>
-  <si>
-    <t>El ataque atraviesa la oreja del adversario y destroza su cerebro, muriendo en el acto Suma +10 a lodos los ataques de tus amigos en el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>25 puntos de daño</t>
-  </si>
-  <si>
-    <t>30 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida leve. +15 puntos de daño. El adversario está aturdido durante 2 asaltos y lucha con un -20 Suma +11 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Buen golpe. +20 puntos de daño. El adversario está aturdido y no puede parar durante 2 asaltos. Suma 10 a tu siguiente ataque</t>
-  </si>
-  <si>
-    <t>El arma atraviesa el corazón del adversario. +20 puntos de daño y muere inmediatamente. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Herida leve. +30 puntos de daño. El adversario está aturdido durante 3 asaltos, y no puede hacer paradas en el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>Buen Golpe. +20 puntos de daño El adversario está aturdido y no puede parar durante 2 asaltos y además, debido a la herida, pierde 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe dirigido contra una pierna del adversario. +9 puntos de daño. El adversario está aturdido y no puede parar durante 1 asalto. Tiene un -10 y pierde 3 puntos de vida por asalto</t>
-  </si>
-  <si>
-    <t>Destrozas el hombro del brazo en el que el adversario tenía el arma + 15 puntos de daño y está aturdido durante 3 asaltos. Ahora tiene un brazo inútil.</t>
-  </si>
-  <si>
-    <t>Fuerte golpe que hace que el adversario se tambalee. +20 puntos de daño. Está aturdido y no puede parar durante 2 asaltos. Suma +5 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Fuerte golpe que aturde al adversario durante 3 asaltos. No puede parar en el asalto siguiente. 22 puntos de daño. Suma +10 a tu siguiente ataque</t>
-  </si>
-  <si>
-    <t>Golpe contra una de las piernas del adversario +15 puntos de daño. Queda aturdido durante 2 asaltos y lucha con un -20, además de perder 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la frente del adversario. Si no lleva yelmo, muere. Si el adversario lo lleva, queda inconsciente. +30 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe que da en el pecho del adversario y destruye su corazón. +25 puntos de daño y muere en el acto. Suma +15 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Golpe dirigido contra la pierna del adversario que le causa 18 puntos de daño. Pierde 5 puntos de vida por asalto y lucha con un -10 además de estar aturdido durante 3 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra la cara del adversario +5 puntos de daño. Pierde 3 puntos de vida por asalto y lucha con un -25. Suma 20 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Golpe contra la cabeza del adversario +30 puntos de daño y pierde la consciencia. Suma +10 a todos los ataques de los personajes de tu mismo bando.</t>
-  </si>
-  <si>
-    <t>Golpe dirigido contra el pecho del adversario, que secciona una vena.  Queda aturdido durante 2 asaltos y cae inconsciente, muriendo después de 5 asaltos.</t>
-  </si>
-  <si>
-    <t>Seccionas una de las arterias de una pierna del adversario. +10 puntos de daño. El adversario muere después de no haber podido haca nada en 12 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe que alcanza al adversario en el coraron. Muere instantáneamente y cae encima tuyo. Pierdes 20 puntos de vida y estás inmovilizado durante 6 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe que atraviesa los dos pulmones del adversario, que muere en 3 asaltos. Tu arma se ha quedado clavada en su cuerpo durante 12 asaltos. 25 puntos de daño</t>
-  </si>
-  <si>
-    <t>Golpe que da al adversario en la nariz, y el hueso de ésta penetra en el cerebro. Muere instantáneamente y aun dispones de medio asalto para actuar.</t>
-  </si>
-  <si>
-    <t>Golpe que atraviesa el oido del adversario, que pierde 15 puntos de vida. Muere durante el asalto siguiente Suma +25 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>El daño destroza el cráneo del adversario. +30 puntos de daño y muere instantáneamente. Un trozo del cráneo sale disparado a 3 m de distancia</t>
-  </si>
-  <si>
-    <t>Golpe que atraviesa los pulmones del adversario: éste cae y muere en 6 asaltos. 24 puntos de daño. Suma +20 a todos los ataques de los personajes del mismo bando del atacante.</t>
-  </si>
-  <si>
-    <t>Golpe de plano. El adversario pierde +35 puntos de vida, está aturdido durante 1 asalto y no puede parar. Tu arma se rompe.</t>
-  </si>
-  <si>
-    <t>Golpe que acierta al adversario en el cuello. +20 puntos de daño. Queda aturdido y no puede parar durante 6 asaltos, tras los cuales muere. Tu arma permanece clavada en el cuerpo durante 2 asaltos</t>
-  </si>
-  <si>
-    <t>E! adversario pierde la vista. Está aturdido y no puede parar durante 2 asaltos, 5 puntos de daño y lucha con un -100</t>
-  </si>
-  <si>
-    <t>El golpe atraviesa la mejilla del adversario, que muere inmediatamente. 15 puntos de daño, pero tu arma permanece clavada en el hueso durante 2 asaltos.</t>
-  </si>
-  <si>
-    <t>Un golpe terrible. +50 puntos de daño. El adversario está aturdido durante 3 asaltos y no puede parar. Luchara con un -20.</t>
-  </si>
-  <si>
-    <t>El arma golpea uno de los lados de la cabeza del adversario, que cae inconsciente +20 puntos de daño y queda inconsciente durante 3 horas. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Golpe que destroza la mandíbula del adversario y le deja inconsciente +60 puntos de daño y queda en coma durante 30 días.</t>
-  </si>
-  <si>
-    <t>Destrozas una de las rodillas del adversario, que pierde 2 puntos de vida por asalto, lucha con un  -30  y queda aturdido durante 3 asaltos.</t>
-  </si>
-  <si>
-    <t>Seccionas una de las venas del antebrazo del adversario. Esta aturdido y no puede parar durante 6 asaltos, y después muere +20 puntos de daño</t>
-  </si>
-  <si>
-    <t>Golpe que hace que astillas de hueso atraviesen el hígado y los riñones. El adversario cae después de haber perdido 40 puntos de vida. A continuación muere.</t>
-  </si>
-  <si>
-    <t>El golpe hace que los restos de la mandíbula del adversario penetren en su cerebro, muriendo instantáneamente. Aún dispones de medio asalto para actuar.</t>
-  </si>
-  <si>
-    <t>Golpe dirigido contra el abdomen del adversario, que destruye una serie de órganos importantes. El adversario se derrumba y muere después de 6 asaltos. +30 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El arma atraviesa la mejilla del adversario. + 10 puntos de daño y muere inmediatamente. Aún dispones de medio asalto para actuar</t>
-  </si>
-  <si>
-    <t>Golpe contra el cuello del adversario. que muere instantáneamente. +25 puntos de daño. Suma + 10 a tu siguiente ataque</t>
-  </si>
-  <si>
-    <t>Golpe al vientre que alcanza los intestinos del adversario. Cae al suelo y muere en 12 asaltos +35 puntos de daño. Suma + 15 a tu siguiente ataque</t>
-  </si>
-  <si>
-    <t>El golpe atraviesa el oído del adversario, con lo que este muere. + 10 puntos de daño. Para el siguiente asalto, suma +20 a los ataques de todos los personajes de tu mismo bando.</t>
-  </si>
-  <si>
-    <t>El ataque secciona una arteria en una pierna del adversario, quien lucha con un -20 durante 2 asaltos, y acto seguido se cae. No puede hacer nada y muere, en 6 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe que secciona la medula espinal del adversario +20 puntos de daño, cae de inmediato y queda paralizado de cintura para abajo.</t>
-  </si>
-  <si>
-    <t>El ataque atraviesa el ojo del adversario, que muere instantánea mente. 15 puntos de daño. Suma +20 a tu siguiente ataque. Aún dispones de medio asalto para actuar.</t>
-  </si>
-  <si>
-    <t>Golpe dirigido contra el antebrazo del adversario que secciona una arteria y le aturde durante 6 asaltos. En el séptimo asalto el adversario se desmaya y cae muriendo a continuación +15 puntos de daño</t>
-  </si>
-  <si>
-    <t>EI golpe secciona la médula espinal del adversario. 15 puntos de daño. Está paralizado del cuello paro abajo, pero tu arma se ha partido en dos.</t>
-  </si>
-  <si>
-    <t>Golpe que destroza el corazón del adversario. +20 puntos de daño y muere de inmediato. Suma +15 a todos los ataques de los personajes de tu mismo bando durante los dos asaltos siguientes.</t>
-  </si>
-  <si>
-    <t>El arma se clava en el corazón del adversario. +25 puntos de daño y se muere. Suma +20 a todos los ataques de los personajes de tu mismo bando durante los 3 asaltos siguientes.</t>
-  </si>
-  <si>
-    <t>El golpe atraviesa la cabeza del adversario, que muere instantáneamente. Esta acción se deberá aplicar  también contra cualquier otro adversario cercano (para este mismo asalto).</t>
-  </si>
-  <si>
-    <t>Golpe muy fuerte de plano. 35 puntos de daño. El adversario está aturdido y no puede parar durante 3 asaltos. Por desgracia tú quedas inconsciente.</t>
-  </si>
-  <si>
-    <t>El arma atraviesa el ojo del adversario, que muere inmediatamente. +20 puntos de daño. Suma +25 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>El adversario se queda ciego como consecuencia del ataque y lucha con un -100. 10 puntos de daño y está aturdido durante 6 asaltos.</t>
-  </si>
-  <si>
-    <t>El ataque rompe las costillas, cuyos fragmentos perforan el pulmón. 30 puntos de daño. El adversario queda inconsciente. Tu arma está clavada en el cuerpo del adversario</t>
-  </si>
-  <si>
-    <t>Dos golpes propinados con el arma hacen que el adversario pierda la vista. +6 puntos de daño. El adversario está aturdido y no puede parar durante 24 asaltos.</t>
-  </si>
-  <si>
-    <t>Grandes criaturas</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>magica</t>
-  </si>
-  <si>
-    <t>mithril</t>
-  </si>
-  <si>
-    <t>arma sagrada</t>
-  </si>
-  <si>
-    <t>especial</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>No hay daños adicionales.</t>
+  </si>
+  <si>
+    <t>No hay consecuencias.</t>
+  </si>
+  <si>
+    <t>+1 punto de daño</t>
+  </si>
+  <si>
+    <t>Arañazo. +2 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Herida leve en la pantorrilla. +2 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Buen golpe. +2 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Herida leve. +2 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe en la pierna. Si el adversario no lleva armadura en la pierna, +5 puntos de daño y pierde 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe en la pierna. +3 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Mala continuación del ataque. Pierdes una garra y luchas con un +5 durante 2 asaltos. El adversario pierde 4 puntos de vida.</t>
+  </si>
+  <si>
+    <t>Leve penetración. +3 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe contra la parte baja de la espalda. +5 puntos de daño. El adversario deberá parar durante el siguiente asalto y pierde 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Salto hacia el pecho del adversario y golpe que le causa la pérdida de 3 puntos de vida.</t>
+  </si>
+  <si>
+    <t>Herida leve. El adversario pierde 1 punto de vida por asalto. +3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Herida leve en el pecho. El adversario pierde 2 puntos de vida por asalto. +4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Desgarras la parte baja del pecho del adversario. Si no lleva armadura metálica en el pecho, +5 puntos de daño y pierde 3 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe contra el pecho. +6 puntos de daño y el adversario está obligado a parar durante el siguiente asalto. El adversario pierde 2 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Herida leve en la pantorrilla. El adversario pierde 1 punto de vida por asalto. +1 punto de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra el muslo, pero no hay en realidad penetración. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Herida moderada en el muslo, que aturde al adversario durante 1 asalto. +4 puntos de daño y el adversario pierde 2 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Herida en el muslo, que aturde al adversario durante el siguiente asalto. +6 puntos de daño y el adversario pierde 2 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Herida en el muslo. El adversario está aturdido durante el siguiente asalto. +7 puntos de daño y el adversario pierde 3 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Herida moderada en el antebrazo. El adversario pierde 2 puntos de vida por asalto. +2 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Arañazo profundo en el antebrazo que deja una cicatriz desagradable. El adversario pierde 2 puntos de vida por asalto. +3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra el antebrazo. El adversario está obligado a parar durante 2 asaltos. +3 puntos de daño, y el adversario pierde 2 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Herida en el antebrazo. El adversario debe parar durante 2 asaltos. +5 puntos de daño. El adversario pierde 2 puntos de vida por asalto. Suma +10 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>Golpe contra el antebrazo. El adversario está aturdido durante el siguiente asalto, y tú ganas la iniciativa 2 asaltos. El adversario pierde 3 puntos de vida por asalto. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra la pierna. El adversario está aturdido y sin poder parar durante el siguiente asalto. +4 puntos de daño. El adversario pierde 2 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe contra la pantorrilla. Se desgarra el músculo del adversario, que está aturdido durante 2 asaltos y lucha con un -20. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Extraño golpe a la muñeca que desarma al adversario. +4 puntos de daño. El adversario está aturdido durante el siguiente asalto. Suma +10 a tu siguiente ataque.</t>
+  </si>
+  <si>
+    <t>Buen golpe a la cabeza. Si el adversario lleva yelmo, +4 puntos de daño. Si no lo lleva, +7 puntos de daño y el adversario no puede parar durante 6 asaltos.</t>
+  </si>
+  <si>
+    <t>Extraño golpe contra los ojos que destruye uno de ellos y le deja ciego del otro durante 2 días. El adversario lucha con un -95 y está aturdido durante 24 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe contra el hombro. El adversario pierde 1 punto de vida por asalto y deberá parar durante el siguiente asalto. +3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra la parte superior del pecho. El adversario está aturdido durante el siguiente asalto. +4 puntos de daño y pierde 1 punto de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe contra el hombro del adversario, que pierde 2 puntos de vida por asalto. +5 puntos de daño, está aturdido y tiene un -20 durante el siguiente asalto.</t>
+  </si>
+  <si>
+    <t>Golpe contra la parte superior del brazo. El adversario está aturdido y sin poder parar durante el siguiente asalto. Pierde 2 puntos de vida por asalto. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Inspirado ataque contra el hombro, que desgarra el músculo. El adversario está aturdido y sin poder parar durante el siguiente asalto, lucha con un -20. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra la parte inferior de la pierna. Si el adversario dispone de armadura en la pierna +1 punto de daño. De lo contrario pierde +4 puntos de daño y 2 puntos de vida por asalto pero gana la iniciativa el siguiente asalto.</t>
+  </si>
+  <si>
+    <t>Golpe contra la parte inferior de la pierna. Si el adversario lleva armadura en la pierna, +3 puntos de daño. De lo contrario, pierde +6 puntos de daño y otros 2 puntos de vida por asalto, y deberá parar durante los 2 siguientes asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe contra la pantorrilla. Desgarras el músculo. El adversario lucha con un -20. La herida hace que pierda 2 puntos de vida por asalto, y le aturde durante 2 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe contra la parte inferior de la pierna. Si el adversario lleva armadura en la pierna, +3 puntos de daño y está aturdido durante el siguiente asalto. De lo contrario, está aturdido durante 2 asaltos y no puede parar durante 1.</t>
+  </si>
+  <si>
+    <t>Importante herida en la pierna. El adversario pierde 4 puntos de vida por asalto y está aturdido durante 3 asaltos. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe débil pero preciso contra el brazo del adversario. Pierde 1 punto de vida por asalto y está aturdido durante el siguiente. +3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe fuerte pero impreciso contra el brazo. El adversario pierde 2 puntos de vida por asalto y lucha con un -15 por culpa de la herida. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra el antebrazo que corta músculos y tendones. El adversario lucha con un -25, pierde 2 puntos de vida por asalto y está aturdido durante 2 asaltos. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra el brazo que desgarra músculos y tendones. El adversario lucha con un -25, pierde 2 puntos de vida por asalto y está aturdido durante 3 asaltos. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Astuto golpe contra el brazo que causa una herida al adversario. Este está aturdido y sin poder parar durante 2 asaltos, y pierde 3 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe a la cara del adversario. +4 puntos de daño, está aturdido durante el siguiente asalto y pierde 2 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe contra la cara. Si el adversario lleva armadura facial, +2 puntos de daño y deberá parar durante el siguiente asalto. De lo contrario, pierde 3 puntos de vida por asalto y está aturdido durante 3 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe contra la cabeza. Si el adversario lleva yelmo, +2 puntos de daño y queda aturdido el siguiente asalto. Si no, le queda una tremenda cicatriz, pierde 3 puntos de vida por asalto y actúa a -40.</t>
+  </si>
+  <si>
+    <t>Golpe acrobático contra la cara. Si el adversario lleva armadura facial, +5 puntos de daño. De lo contrario, le arrancas la nariz, pierde 3 puntos de vida por asalto, está aturdido durante 3 asaltos y a -40.</t>
+  </si>
+  <si>
+    <t>Golpe .contra la cabeza. Si el adversario lleva yelmo, +4 puntos de daño y queda aturdido el siguiente asalto. Si no, pierde 3 puntos de vida por asalto, actúa a -25 y permanece aturdido 9 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe rápido y certero. El adversario está aturdido durante 2 asaltos. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Desgarras el cuello del adversario. Pierde 2 puntos de vida por asalto y está aturdido durante 3 asaltos. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra el hombro del adversario. Está aturdido y sin poder parar durante 2 asaltos. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra el brazo del arma. El adversario está desarmado y aturdido durante el siguiente asalto. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Herida en la parte superior del muslo, con desgarro muscular. El adversario lucha con un -40 y pierde 3 puntos de vida por asalto,  está aturdido durante 3 asaltos y no puede parar durante 1.</t>
+  </si>
+  <si>
+    <t>Saltas y aciertas en la cabeza del adversario. Si éste lleva yelmo, +3 puntos de daño y está aturdido durante el siguiente asalto. De lo contrario, lucha con un -30 y está aturdido durante 2 asaltos. La oreja ha sido desgarrada.</t>
+  </si>
+  <si>
+    <t>Golpe contra la muñeca. La herida le hace perder 2 puntos de vida por asalto. El adversario está aturdido durante 3 asaltos y no puede parar durante 1. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra el cuello. El adversario está aturdido y sin poder parar durante 2 asaltos, perdiendo 2 puntos de vida por asalto. El adversario lucha con un -20. +3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Un ataque en el momento apropiado desgarra el músculo del pulgar de la mano del arma. El adversario ha sido desarmado y está aturdido y sin poder parar durante 2 asaltos, lucha con un -50.</t>
+  </si>
+  <si>
+    <t>Un salto rapidísimo que derriba al adversario, lo desarma y lo deja inconsciente. +9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Buen golpe contra la nariz del adversario. Si el adversario lleva un yelmo completo, está aturdido durante 2 asaltos. De lo contrario, su nariz queda destrozada pierde 3 puntos de vida por asalto y está aturdido durante 9 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe contra la cabeza. El adversario está ciego por la pérdida de sangre, pierde 3 puntos de vida por asalto, y está aturdido y sin poder parar durante 3 asaltos. Mientras esté sangrando, lucha con un -40.</t>
+  </si>
+  <si>
+    <t>Desgarras el tendón de Aquiles. El adversario ha sido derribado y está aturdido y sin poder parar durante 3 asaltos pierde 1 punto de vida por asalto y lucha con un -75.</t>
+  </si>
+  <si>
+    <t>Golpe contra los ojos del adversario. Si éste lleva un yelmo completo, queda cegado temporalmente y lucha con un -95 durante 1 semana. De lo contrario, pierde un ojo y no puede ver con el otro, y lucha con un -100.</t>
+  </si>
+  <si>
+    <t>Un golpe contra la cabeza derriba al adversario. Este sufre una conmoción general y muere después de 9 asaltos debido al 'shock' y a las hemorragias internas."</t>
+  </si>
+  <si>
+    <t>Golpe dirigido contra los ojos del adversario. Si lleva yelmo completo, está aturdido y sin poder parar durante 2 asaltos. De lo contrario, pierde un ojo lucha con un -75 y está aturdido y sin poder parar durante 3 asaltos.</t>
+  </si>
+  <si>
+    <t>El ataque desgarra la garganta y derriba al adversario. Está aturdido y sin poder parar durante 6 asaltos, pierde 3 puntos de vida por asalto y lucha con un -50.</t>
+  </si>
+  <si>
+    <t>Extraño ataque contra la región de la cabeza del adversario, lo que hace que se golpee con su propia arma. El adversario deberá hacer una ataque en la columna "E" de la tabla de aciertos críticos de aplastamiento.</t>
+  </si>
+  <si>
+    <t>Golpe dirigido contra los ojos del adversario. +10 puntos de daño. Queda aturdido e incapaz de parar durante 6 asaltos, lucha con un -95 y pierde 2 puntos de vida por asalto. Ceguera permanente.</t>
+  </si>
+  <si>
+    <t>Un increíble golpe en el cuello derriba al adversario, rompiendo venas y arterias, provocando una pérdida de 20 puntos de vida por asalto y la muerte tras 6 asaltos de inactividad.</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Criaturas pequeñas</t>
   </si>
 </sst>
 </file>
@@ -351,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -374,35 +347,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -412,21 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECB416-150D-45AA-AD15-5F5F9DD0A780}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,39 +695,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -802,27 +736,27 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
@@ -831,27 +765,27 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -860,27 +794,27 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2">
         <v>16</v>
@@ -889,16 +823,16 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>17</v>
@@ -906,10 +840,10 @@
     </row>
     <row r="6" spans="1:9" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -918,27 +852,27 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2">
         <v>26</v>
@@ -947,27 +881,27 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1">
         <v>31</v>
@@ -976,27 +910,27 @@
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2">
         <v>36</v>
@@ -1005,27 +939,27 @@
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1">
         <v>41</v>
@@ -1034,27 +968,27 @@
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2">
         <v>46</v>
@@ -1063,27 +997,27 @@
         <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1">
         <v>51</v>
@@ -1091,14 +1025,14 @@
       <c r="D12" s="1">
         <v>55</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>21</v>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>29</v>
@@ -1109,10 +1043,10 @@
     </row>
     <row r="13" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2">
         <v>56</v>
@@ -1120,28 +1054,28 @@
       <c r="D13" s="2">
         <v>60</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>21</v>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1">
         <v>61</v>
@@ -1149,28 +1083,28 @@
       <c r="D14" s="1">
         <v>65</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>21</v>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2">
         <v>66</v>
@@ -1179,27 +1113,27 @@
         <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1">
         <v>67</v>
@@ -1208,27 +1142,27 @@
         <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2">
         <v>71</v>
@@ -1237,27 +1171,27 @@
         <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1">
         <v>76</v>
@@ -1266,27 +1200,27 @@
         <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2">
         <v>81</v>
@@ -1295,27 +1229,27 @@
         <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1">
         <v>86</v>
@@ -1324,27 +1258,27 @@
         <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2">
         <v>91</v>
@@ -1353,27 +1287,27 @@
         <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1">
         <v>96</v>
@@ -1382,27 +1316,27 @@
         <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
@@ -1411,164 +1345,19 @@
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="7">
-        <v>101</v>
-      </c>
-      <c r="D24" s="7">
-        <v>150</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="8">
-        <v>151</v>
-      </c>
-      <c r="D25" s="8">
-        <v>175</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="7">
-        <v>176</v>
-      </c>
-      <c r="D26" s="7">
-        <v>200</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="8">
-        <v>201</v>
-      </c>
-      <c r="D27" s="8">
-        <v>250</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="7">
-        <v>251</v>
-      </c>
-      <c r="D28" s="7">
-        <v>251</v>
-      </c>
-      <c r="E28" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/public/excel/criticos.xlsx
+++ b/backend/public/excel/criticos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neru\OneDrive\Escritorio\Tablas de criticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C512FD5E-FB40-4F31-A50A-B5ADE854B17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{273CB4D4-B74C-4AB8-B1E4-644985AE8825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6C323D6-314E-4F73-88FC-B8D502B63BBB}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
-  <si>
-    <t>Nada.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>+1 punto de daño.</t>
   </si>
@@ -69,226 +66,268 @@
     <t>simbolo</t>
   </si>
   <si>
-    <t>No hay daños adicionales.</t>
-  </si>
-  <si>
-    <t>No hay consecuencias.</t>
-  </si>
-  <si>
-    <t>+1 punto de daño</t>
-  </si>
-  <si>
-    <t>Arañazo. +2 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida leve en la pantorrilla. +2 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Buen golpe. +2 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida leve. +2 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe en la pierna. Si el adversario no lleva armadura en la pierna, +5 puntos de daño y pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe en la pierna. +3 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Mala continuación del ataque. Pierdes una garra y luchas con un +5 durante 2 asaltos. El adversario pierde 4 puntos de vida.</t>
-  </si>
-  <si>
-    <t>Leve penetración. +3 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte baja de la espalda. +5 puntos de daño. El adversario deberá parar durante el siguiente asalto y pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Salto hacia el pecho del adversario y golpe que le causa la pérdida de 3 puntos de vida.</t>
-  </si>
-  <si>
-    <t>Herida leve. El adversario pierde 1 punto de vida por asalto. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida leve en el pecho. El adversario pierde 2 puntos de vida por asalto. +4 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Desgarras la parte baja del pecho del adversario. Si no lleva armadura metálica en el pecho, +5 puntos de daño y pierde 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra el pecho. +6 puntos de daño y el adversario está obligado a parar durante el siguiente asalto. El adversario pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida leve en la pantorrilla. El adversario pierde 1 punto de vida por asalto. +1 punto de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el muslo, pero no hay en realidad penetración. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida moderada en el muslo, que aturde al adversario durante 1 asalto. +4 puntos de daño y el adversario pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida en el muslo, que aturde al adversario durante el siguiente asalto. +6 puntos de daño y el adversario pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida en el muslo. El adversario está aturdido durante el siguiente asalto. +7 puntos de daño y el adversario pierde 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida moderada en el antebrazo. El adversario pierde 2 puntos de vida por asalto. +2 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Arañazo profundo en el antebrazo que deja una cicatriz desagradable. El adversario pierde 2 puntos de vida por asalto. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el antebrazo. El adversario está obligado a parar durante 2 asaltos. +3 puntos de daño, y el adversario pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida en el antebrazo. El adversario debe parar durante 2 asaltos. +5 puntos de daño. El adversario pierde 2 puntos de vida por asalto. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Golpe contra el antebrazo. El adversario está aturdido durante el siguiente asalto, y tú ganas la iniciativa 2 asaltos. El adversario pierde 3 puntos de vida por asalto. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra la pierna. El adversario está aturdido y sin poder parar durante el siguiente asalto. +4 puntos de daño. El adversario pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la pantorrilla. Se desgarra el músculo del adversario, que está aturdido durante 2 asaltos y lucha con un -20. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Extraño golpe a la muñeca que desarma al adversario. +4 puntos de daño. El adversario está aturdido durante el siguiente asalto. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Buen golpe a la cabeza. Si el adversario lleva yelmo, +4 puntos de daño. Si no lo lleva, +7 puntos de daño y el adversario no puede parar durante 6 asaltos.</t>
-  </si>
-  <si>
-    <t>Extraño golpe contra los ojos que destruye uno de ellos y le deja ciego del otro durante 2 días. El adversario lucha con un -95 y está aturdido durante 24 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra el hombro. El adversario pierde 1 punto de vida por asalto y deberá parar durante el siguiente asalto. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte superior del pecho. El adversario está aturdido durante el siguiente asalto. +4 puntos de daño y pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra el hombro del adversario, que pierde 2 puntos de vida por asalto. +5 puntos de daño, está aturdido y tiene un -20 durante el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte superior del brazo. El adversario está aturdido y sin poder parar durante el siguiente asalto. Pierde 2 puntos de vida por asalto. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Inspirado ataque contra el hombro, que desgarra el músculo. El adversario está aturdido y sin poder parar durante el siguiente asalto, lucha con un -20. +7 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte inferior de la pierna. Si el adversario dispone de armadura en la pierna +1 punto de daño. De lo contrario pierde +4 puntos de daño y 2 puntos de vida por asalto pero gana la iniciativa el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte inferior de la pierna. Si el adversario lleva armadura en la pierna, +3 puntos de daño. De lo contrario, pierde +6 puntos de daño y otros 2 puntos de vida por asalto, y deberá parar durante los 2 siguientes asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra la pantorrilla. Desgarras el músculo. El adversario lucha con un -20. La herida hace que pierda 2 puntos de vida por asalto, y le aturde durante 2 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte inferior de la pierna. Si el adversario lleva armadura en la pierna, +3 puntos de daño y está aturdido durante el siguiente asalto. De lo contrario, está aturdido durante 2 asaltos y no puede parar durante 1.</t>
-  </si>
-  <si>
-    <t>Importante herida en la pierna. El adversario pierde 4 puntos de vida por asalto y está aturdido durante 3 asaltos. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe débil pero preciso contra el brazo del adversario. Pierde 1 punto de vida por asalto y está aturdido durante el siguiente. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe fuerte pero impreciso contra el brazo. El adversario pierde 2 puntos de vida por asalto y lucha con un -15 por culpa de la herida. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el antebrazo que corta músculos y tendones. El adversario lucha con un -25, pierde 2 puntos de vida por asalto y está aturdido durante 2 asaltos. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el brazo que desgarra músculos y tendones. El adversario lucha con un -25, pierde 2 puntos de vida por asalto y está aturdido durante 3 asaltos. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Astuto golpe contra el brazo que causa una herida al adversario. Este está aturdido y sin poder parar durante 2 asaltos, y pierde 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe a la cara del adversario. +4 puntos de daño, está aturdido durante el siguiente asalto y pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la cara. Si el adversario lleva armadura facial, +2 puntos de daño y deberá parar durante el siguiente asalto. De lo contrario, pierde 3 puntos de vida por asalto y está aturdido durante 3 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra la cabeza. Si el adversario lleva yelmo, +2 puntos de daño y queda aturdido el siguiente asalto. Si no, le queda una tremenda cicatriz, pierde 3 puntos de vida por asalto y actúa a -40.</t>
-  </si>
-  <si>
-    <t>Golpe acrobático contra la cara. Si el adversario lleva armadura facial, +5 puntos de daño. De lo contrario, le arrancas la nariz, pierde 3 puntos de vida por asalto, está aturdido durante 3 asaltos y a -40.</t>
-  </si>
-  <si>
-    <t>Golpe .contra la cabeza. Si el adversario lleva yelmo, +4 puntos de daño y queda aturdido el siguiente asalto. Si no, pierde 3 puntos de vida por asalto, actúa a -25 y permanece aturdido 9 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe rápido y certero. El adversario está aturdido durante 2 asaltos. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Desgarras el cuello del adversario. Pierde 2 puntos de vida por asalto y está aturdido durante 3 asaltos. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el hombro del adversario. Está aturdido y sin poder parar durante 2 asaltos. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el brazo del arma. El adversario está desarmado y aturdido durante el siguiente asalto. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida en la parte superior del muslo, con desgarro muscular. El adversario lucha con un -40 y pierde 3 puntos de vida por asalto,  está aturdido durante 3 asaltos y no puede parar durante 1.</t>
-  </si>
-  <si>
-    <t>Saltas y aciertas en la cabeza del adversario. Si éste lleva yelmo, +3 puntos de daño y está aturdido durante el siguiente asalto. De lo contrario, lucha con un -30 y está aturdido durante 2 asaltos. La oreja ha sido desgarrada.</t>
-  </si>
-  <si>
-    <t>Golpe contra la muñeca. La herida le hace perder 2 puntos de vida por asalto. El adversario está aturdido durante 3 asaltos y no puede parar durante 1. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el cuello. El adversario está aturdido y sin poder parar durante 2 asaltos, perdiendo 2 puntos de vida por asalto. El adversario lucha con un -20. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Un ataque en el momento apropiado desgarra el músculo del pulgar de la mano del arma. El adversario ha sido desarmado y está aturdido y sin poder parar durante 2 asaltos, lucha con un -50.</t>
-  </si>
-  <si>
-    <t>Un salto rapidísimo que derriba al adversario, lo desarma y lo deja inconsciente. +9 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Buen golpe contra la nariz del adversario. Si el adversario lleva un yelmo completo, está aturdido durante 2 asaltos. De lo contrario, su nariz queda destrozada pierde 3 puntos de vida por asalto y está aturdido durante 9 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra la cabeza. El adversario está ciego por la pérdida de sangre, pierde 3 puntos de vida por asalto, y está aturdido y sin poder parar durante 3 asaltos. Mientras esté sangrando, lucha con un -40.</t>
-  </si>
-  <si>
-    <t>Desgarras el tendón de Aquiles. El adversario ha sido derribado y está aturdido y sin poder parar durante 3 asaltos pierde 1 punto de vida por asalto y lucha con un -75.</t>
-  </si>
-  <si>
-    <t>Golpe contra los ojos del adversario. Si éste lleva un yelmo completo, queda cegado temporalmente y lucha con un -95 durante 1 semana. De lo contrario, pierde un ojo y no puede ver con el otro, y lucha con un -100.</t>
-  </si>
-  <si>
-    <t>Un golpe contra la cabeza derriba al adversario. Este sufre una conmoción general y muere después de 9 asaltos debido al 'shock' y a las hemorragias internas."</t>
-  </si>
-  <si>
-    <t>Golpe dirigido contra los ojos del adversario. Si lleva yelmo completo, está aturdido y sin poder parar durante 2 asaltos. De lo contrario, pierde un ojo lucha con un -75 y está aturdido y sin poder parar durante 3 asaltos.</t>
-  </si>
-  <si>
-    <t>El ataque desgarra la garganta y derriba al adversario. Está aturdido y sin poder parar durante 6 asaltos, pierde 3 puntos de vida por asalto y lucha con un -50.</t>
-  </si>
-  <si>
-    <t>Extraño ataque contra la región de la cabeza del adversario, lo que hace que se golpee con su propia arma. El adversario deberá hacer una ataque en la columna "E" de la tabla de aciertos críticos de aplastamiento.</t>
-  </si>
-  <si>
-    <t>Golpe dirigido contra los ojos del adversario. +10 puntos de daño. Queda aturdido e incapaz de parar durante 6 asaltos, lucha con un -95 y pierde 2 puntos de vida por asalto. Ceguera permanente.</t>
-  </si>
-  <si>
-    <t>Un increíble golpe en el cuello derriba al adversario, rompiendo venas y arterias, provocando una pérdida de 20 puntos de vida por asalto y la muerte tras 6 asaltos de inactividad.</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Criaturas pequeñas</t>
+    <t>Mucha electricidad estática. +0 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El cabello del adversario se pone tieso. +0 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa para el siguiente asalto. +4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa para el siguiente asalto. +2 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa para el siguiente asalto el metal que lleva encima comienza a zumbar. +2 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa para el siguiente asalto. +3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Si el adversario lleva puesta una armadura de metal, pierde la iniciativa durante 2 asaltos de no ser así, el adversario está aturdido durante 1 asalto. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario gira sobre si mismo y pierde la iniciativa para el siguiente asalto. +3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Una explosión de luz hace que el adversario pierda la iniciativa para el siguiente asalto. +4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Una nube de humo hace que el adversario pierda la iniciativa durante 2 asaltos. +3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde el equilibrio, pero el golpe es débil. Deberá parar durante el siguiente asalto. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe de refilón, que aturde al adversario durante 1 asalto. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe hace que el adversario pierda el equilibrio. Pierde la iniciativa durante 2 asaltos. +4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Fuerte golpe que hace que el adversario pierda la iniciativa durante 2 asaltos. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe fuerte pero desviado que obliga al adversario a parar durante el siguiente asalto. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Quemaduras leves. El adversario deberá parar durante 2 asaltos y pierde 1 punto de vida por asalto. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario se quema un poco y está aturdido durante 2 asaltos. +12 puntos de daño.</t>
+  </si>
+  <si>
+    <t>La luz distrae al adversario, que deberá parar durante 1 asalto. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Quemaduras leves. El adversario deberá parar durante 1 asalto y pierde 1 punto de vida por asalto. +2 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario siente el calor y debe parar durante 2 asaltos. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 1 asalto. Lucha con un -10 durante 2 asaltos. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>La luz y el humo aturden al adversario durante 2 asaltos. Lucha con un -10 durante 2 asaltos. +12 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Quemaduras leves. El adversario debe parar durante 1 asalto y pierde 1 punto de vida por asalto. +2 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe obliga al adversario a parar durante 2 asaltos. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Si el adversario lleva una armadura de metal, queda aturdido durante 2 asaltos. De no ser así, está aturdido durante 1 asalto. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Una explosión de luz y de fuego aturde al adversario durante 2 asaltos. Lucha con un -10 durante 2 asaltos. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Si el adversario lleva una armadura de metal, está aturdido y sin poder parar durante 2 asaltos. De no ser así, el adversario estará aturdido durante 2 asaltos. +13 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe débil que aturde al adversario durante 1 asalto. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario gira sobre si mismo y está aturdido durante 1 asalto. Una quemadura leve en la pierna le hace perder 2 puntos de vida por asalto. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la pierna del adversario. Si el adversario lleva armadura en la pierna, está aturdido durante 1 asalto. De no ser así, el adversario está aturdido y sin poder parar durante 1 asalto, perdiendo 3 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 2 asaltos y no puede parar durante 1. +10 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El humo caliente y la luz aturden al adversario durante 4 asaltos. Pierde la iniciativa durante 6 asaltos. +13 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde el equilibrio y está obligado a parar durante 3 asaltos. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido durante 2 asaltos. Si lleva armadura de metal, no podrá parar durante 1 asalto. +8 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 2 asaltos. No puede parar durante un asalto, por haber recibido el golpe en la pierna. +9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo que aguanta el escudo del adversario. Si lleva armadura de metal pero no escudo, el adversario está inconsciente durante 1 día. +15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo con el que el adversario aguanta el arma. El adversario deja caer al suelo todo lo que tenga en la mano del arma. Está aturdido durante 2 asaltos y pierde 2 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. Si el adversario lleva armadura de metal está aturdido durante 2 asaltos. De no llevar armadura estará aturdido durante 3 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe en la mitad superior de la pierna. El adversario está aturdido y sin poder parar durante 1 asalto. +9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido y sin poder parar durante 2 asaltos. +10 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Si el adversario lleva puesta una armadura que le proteja el abdomen, pierde 2 puntos de vida por asalto y está aturdido durante 2 asaltos a causa de las quemaduras leves. De no llevar armadura, las quemaduras le aturden durante 6 asaltos y le hacen perder 3 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe en la pierna. El adversario es derribado y está aturdido durante 2 asaltos, no pudiendo parar durante 1 asalto. +14 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Estallido de luz y humo que deja aturdidos durante 1 asalto a todos los que se encuentren a menos de 1'5 m del adversario. El adversario cae al suelo y está aturdido durante 3 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. El adversario está aturdido y sin poder parar durante 3 asaltos, perdiendo además 3 puntos de vida por asalto. Lucha con un -20. +15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. Si el adversario lleva puesta una armadura de metal que le protege los brazos y el pecho, sus piezas se fusionan entre si y no puede usar sus brazos. De no ser así, el adversario está inconsciente durante 6 horas y pierde +9 puntos de vida.</t>
+  </si>
+  <si>
+    <t>Golpe en el cuello que le deja inconsciente. El adversario no puede hablar durante 2 meses y pierde +4 puntos de vida por asalto. +20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la cabeza. Si el adversario lleva puesto un yelmo de metal, el golpe le deja inconsciente 9 horas. Si es de cuero, éste es destruido y el adversario está en coma durante 2 meses. De no ser así, el cerebro del adversario se deshace y él muere en el acto. Suma+10 a tu siguiente tirada.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido y sin poder parar durante 1 asalto. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido durante 2 asaltos y sin poder parar durante un asalto. +10 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido y sin poder parar durante 2 asaltos. Las quemaduras obligan al adversario a luchar con un -10. +11 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario cae al suelo y está inconsciente durante 1 asalto. 'Shock' leve. El adversario lucha con un -20. +12 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido y sin poder parar durante 4 asaltos. 'Shock' leve. El adversario lucha con un -25. +15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 3 asaltos; luchará con un -5 durante 6 asaltos. +8 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo del adversario que aguanta el escudo. Si el adversario lleva un escudo, está aturdido durante 4 asaltos. De no ser así, el brazo del usuario está inutilizado y él está aturdido y sin poder parar durante 2 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo del adversario que aguanta el escudo. Si lleva un escudo de metal, está aturdido durante 6 asaltos y pierde + 12 puntos de vida. De no ser así, el adversario cae al suelo, el brazo queda inútil y +13 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo del adversario que aguanta el arma. El brazo queda inútil y el adversario está aturdido durante 3 asaltos. +13 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el hombro del brazo con el arma, que fragmenta el hueso y causa daños a músculos y cartílagos. El brazo queda inútil, el adversario está aturdido durante 6 asaltos y pierde +3 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe en la mitad superior del pecho del adversario que le aturde durante 2 asaltos. No puede parar durante 1 asalto. +9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. El adversario cae al suelo y pierde 2 puntos de vida por asalto por efecto de la pérdida de sangre. + 11 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. Si el adversario lleva una armadura que le proteja el pecho, está aturdido durante 6 asaltos, pierde 2 puntos de vida por asalto y lucha con un -5. De no ser así, el adversario está inconsciente durante 3 días como consecuencia del 'shock'.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. Si el adversario lleva una armadura de metal que le protege el pecho, cae al suelo inconsciente y pierde +25 puntos de vida. De no ser así, el adversario está aturdido y sin poder parar durante 6 asaltos, perdiendo además +15 puntos de vida.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho, el adversario cae al suelo inconsciente como consecuencia del 'shock'. La pérdida de sangre y los daños causados a sus nervios provocan la pérdida de 3 puntos de vida por asalto. +18 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido y sin poder parar durante 2 asaltos. +12 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. El adversario está aturdido y sin poder parar durante 3 asaltos. Los músculos son seccionados y el adversario lucha con un -10. +13 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el muslo. El adversario pierde 2 puntos de vida por asalto. Los huesos se rompen y los cartílagos se desgarran, el adversario está aturdido durante 4 asaltos y lucha con un -40.</t>
+  </si>
+  <si>
+    <t>Golpe en la parte baja de la espalda, que causa daños nerviosos y 'shock'. El adversario está aturdido durante 30 asaltos y pierde 3 puntos de vida por asalto. + 15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario se convierte en un conductor eléctrico y el golpe reorganiza todo su sistema nervioso. El adversario cae al suelo y está en estado de 'shock' durante 12 asaltos, transcurridos los cuales muere.</t>
+  </si>
+  <si>
+    <t>El golpe derriba al adversario. Si lleva armadura de metal en la pierna, pierde el uso de la pierna a causa de los daños causados a sus nervios. De no ser así, +15 puntos de daño y el adversario está aturdido y sin poder parar durante 2 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe en la pierna. Si el adversario lleva armadura en la pierna, está aturdido y sin poder parar durante 6 asaltos. De no ser así, la pierna del adversario está rota, con varios de sus nervios dañados y el adversario está aturdido durante 6 asaltos. Lucha con un -50.</t>
+  </si>
+  <si>
+    <t>El golpe fragmenta la rodilla del adversario y destruye una serie de nervios. El adversario lucha con un -60 y está aturdido y sin poder parar durante 2 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe en el abdomen. Si el adversario lleva puesta una armadura que le proteja el abdomen, está aturdido durante 9 asaltos y pierde 6 puntos de vida por asalto. De no ser así, el adversario muere después de 12 asaltos por 'shock' y pérdida de sangre.</t>
+  </si>
+  <si>
+    <t>El golpe aplasta la pelvis y destruye la parte baja de la columna vertebral del adversario su espina dorsal se quema y se divide en multitud de fragmentos pequeños. El adversario cae al suelo inconsciente y muere después de 12 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe en la cadera. Si el adversario lleva puesta una armadura que le proteja la cadera, está aturdido durante 6 asaltos; +10 puntos de daño. De no ser así, el adversario está aturdido durante 3 asaltos y lleva un -50 a todas sus acciones a causa del 'shock' y los daños causados a los nervios.</t>
+  </si>
+  <si>
+    <t>Golpe en la cabeza. El adversario pierde la nariz, está temporalmente ciego durante 2 semanas y aturdido durante 9 asaltos. Mientras esté ciego, el adversario lucha con un -95. Si no lleva yelmo, cae al suelo.</t>
+  </si>
+  <si>
+    <t>Golpe que atraviesa la parte baja del abdomen, causando un 'shock' generalizado y una importante pérdida de sangre. Si el abdomen está protegido por una armadura, el adversario lucha con un -75 y pierde 5 puntos de vida por asalto. De no ser así, el adversario muere después de no hacer nada durante 6 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe en el costado, que destroza el sistema nervioso del adversario. Entra en coma y en estado de 'shock' generalizado. El adversario se convierte en un vegetal viviente. +30 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el costado, que funde la parte baja del esqueleto del adversario y destruye toda una serie de órganos internos. El adversario muere después de no poder hacer nada durante 9 asaltos. +25 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el cuello y los hombros. Si el adversario lleva puesta una armadura que le proteja el cuello,  está aturdido y sin poder parar durante 6 asaltos. De no ser así,  cae al suelo inconsciente y pierde el habla. +10 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la cabeza, que destroza el cráneo y provoca un 'shock' generalizado además de lesiones graves en el cerebro. El adversario cae al suelo y muere después de 9 asaltos. +15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho que destruye el corazón y los pulmones del adversario. Si lleva puesta una armadura que le proteja el pecho, todos sus componentes se fusionan entre si y el adversario muere después de 6 asaltos. De no ser así, el adversario muere en el acto.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho, que hace retroceder al adversario 3 m. Daños nerviosos generalizados. El adversario muere de 'shock' después de 3 asaltos. +20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho, que destruye los dos pulmones del adversario y parte a éste en dos. Los efectos del ataque se notan hasta a 3 m por detrás del adversario (si llega a acertar en un segundo blanco, restar 20).</t>
+  </si>
+  <si>
+    <t>Golpe en la cabeza. El cerebro del adversario sufre un 'shock' generalizado y daños graves en la corteza cerebral. El adversario cae al suelo inconsciente y muere después de 6 asaltos. +20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe atraviesa el cuello del adversario y le decapita, matándole en el acto. Suma +10 a tu siguiente tirada de ataque con hechizos.</t>
+  </si>
+  <si>
+    <t>La cabeza del adversario deja de funcionar y de su cuerpo sin vida sale humo y olor a ozono. Suma 10 a las tiradas de tus compañeros que hayan sido testigos del hecho durante los 3 siguientes asaltos.</t>
+  </si>
+  <si>
+    <t>El sistema nervioso del adversario hace de superconductor. La muerte instantánea del" adversario ilumina la escena. Suma +15 a tu siguiente tirada.</t>
+  </si>
+  <si>
+    <t>El adversario se convierte en polvo. Suma +20 a tu siguiente tirada.</t>
+  </si>
+  <si>
+    <t>Electricidad</t>
   </si>
 </sst>
 </file>
@@ -678,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECB416-150D-45AA-AD15-5F5F9DD0A780}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,39 +734,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -736,27 +775,27 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
@@ -768,24 +807,24 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -794,27 +833,27 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
         <v>16</v>
@@ -823,27 +862,27 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -852,27 +891,27 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
         <v>26</v>
@@ -881,27 +920,27 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1">
         <v>31</v>
@@ -910,27 +949,27 @@
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2">
         <v>36</v>
@@ -939,27 +978,27 @@
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1">
         <v>41</v>
@@ -968,27 +1007,27 @@
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
         <v>46</v>
@@ -997,27 +1036,27 @@
         <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1">
         <v>51</v>
@@ -1026,27 +1065,27 @@
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2">
         <v>56</v>
@@ -1055,27 +1094,27 @@
         <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1">
         <v>61</v>
@@ -1084,27 +1123,27 @@
         <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2">
         <v>66</v>
@@ -1113,27 +1152,27 @@
         <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1">
         <v>67</v>
@@ -1142,27 +1181,27 @@
         <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2">
         <v>71</v>
@@ -1171,27 +1210,27 @@
         <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1">
         <v>76</v>
@@ -1200,27 +1239,27 @@
         <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2">
         <v>81</v>
@@ -1229,27 +1268,27 @@
         <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1">
         <v>86</v>
@@ -1258,27 +1297,27 @@
         <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2">
         <v>91</v>
@@ -1287,27 +1326,27 @@
         <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1">
         <v>96</v>
@@ -1316,27 +1355,27 @@
         <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
@@ -1345,19 +1384,19 @@
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/backend/public/excel/criticos.xlsx
+++ b/backend/public/excel/criticos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neru\OneDrive\Escritorio\Tablas de criticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C512FD5E-FB40-4F31-A50A-B5ADE854B17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A488E928-2D52-4A33-B8ED-C40550787ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6C323D6-314E-4F73-88FC-B8D502B63BBB}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
-  <si>
-    <t>Nada.</t>
-  </si>
-  <si>
-    <t>+1 punto de daño.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
   <si>
     <t>Start</t>
   </si>
@@ -39,256 +33,127 @@
     <t>End</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>+2 puntos de daño.</t>
-  </si>
-  <si>
-    <t>+3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>+4 puntos de daño.</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>tipo</t>
   </si>
   <si>
     <t>simbolo</t>
   </si>
   <si>
-    <t>No hay daños adicionales.</t>
-  </si>
-  <si>
-    <t>No hay consecuencias.</t>
-  </si>
-  <si>
-    <t>+1 punto de daño</t>
-  </si>
-  <si>
-    <t>Arañazo. +2 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida leve en la pantorrilla. +2 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Buen golpe. +2 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida leve. +2 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe en la pierna. Si el adversario no lleva armadura en la pierna, +5 puntos de daño y pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe en la pierna. +3 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Mala continuación del ataque. Pierdes una garra y luchas con un +5 durante 2 asaltos. El adversario pierde 4 puntos de vida.</t>
-  </si>
-  <si>
-    <t>Leve penetración. +3 puntos de daño y el adversario pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte baja de la espalda. +5 puntos de daño. El adversario deberá parar durante el siguiente asalto y pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Salto hacia el pecho del adversario y golpe que le causa la pérdida de 3 puntos de vida.</t>
-  </si>
-  <si>
-    <t>Herida leve. El adversario pierde 1 punto de vida por asalto. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida leve en el pecho. El adversario pierde 2 puntos de vida por asalto. +4 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Desgarras la parte baja del pecho del adversario. Si no lleva armadura metálica en el pecho, +5 puntos de daño y pierde 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra el pecho. +6 puntos de daño y el adversario está obligado a parar durante el siguiente asalto. El adversario pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida leve en la pantorrilla. El adversario pierde 1 punto de vida por asalto. +1 punto de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el muslo, pero no hay en realidad penetración. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida moderada en el muslo, que aturde al adversario durante 1 asalto. +4 puntos de daño y el adversario pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida en el muslo, que aturde al adversario durante el siguiente asalto. +6 puntos de daño y el adversario pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida en el muslo. El adversario está aturdido durante el siguiente asalto. +7 puntos de daño y el adversario pierde 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida moderada en el antebrazo. El adversario pierde 2 puntos de vida por asalto. +2 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Arañazo profundo en el antebrazo que deja una cicatriz desagradable. El adversario pierde 2 puntos de vida por asalto. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el antebrazo. El adversario está obligado a parar durante 2 asaltos. +3 puntos de daño, y el adversario pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Herida en el antebrazo. El adversario debe parar durante 2 asaltos. +5 puntos de daño. El adversario pierde 2 puntos de vida por asalto. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Golpe contra el antebrazo. El adversario está aturdido durante el siguiente asalto, y tú ganas la iniciativa 2 asaltos. El adversario pierde 3 puntos de vida por asalto. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra la pierna. El adversario está aturdido y sin poder parar durante el siguiente asalto. +4 puntos de daño. El adversario pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la pantorrilla. Se desgarra el músculo del adversario, que está aturdido durante 2 asaltos y lucha con un -20. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Extraño golpe a la muñeca que desarma al adversario. +4 puntos de daño. El adversario está aturdido durante el siguiente asalto. Suma +10 a tu siguiente ataque.</t>
-  </si>
-  <si>
-    <t>Buen golpe a la cabeza. Si el adversario lleva yelmo, +4 puntos de daño. Si no lo lleva, +7 puntos de daño y el adversario no puede parar durante 6 asaltos.</t>
-  </si>
-  <si>
-    <t>Extraño golpe contra los ojos que destruye uno de ellos y le deja ciego del otro durante 2 días. El adversario lucha con un -95 y está aturdido durante 24 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra el hombro. El adversario pierde 1 punto de vida por asalto y deberá parar durante el siguiente asalto. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte superior del pecho. El adversario está aturdido durante el siguiente asalto. +4 puntos de daño y pierde 1 punto de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra el hombro del adversario, que pierde 2 puntos de vida por asalto. +5 puntos de daño, está aturdido y tiene un -20 durante el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte superior del brazo. El adversario está aturdido y sin poder parar durante el siguiente asalto. Pierde 2 puntos de vida por asalto. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Inspirado ataque contra el hombro, que desgarra el músculo. El adversario está aturdido y sin poder parar durante el siguiente asalto, lucha con un -20. +7 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte inferior de la pierna. Si el adversario dispone de armadura en la pierna +1 punto de daño. De lo contrario pierde +4 puntos de daño y 2 puntos de vida por asalto pero gana la iniciativa el siguiente asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte inferior de la pierna. Si el adversario lleva armadura en la pierna, +3 puntos de daño. De lo contrario, pierde +6 puntos de daño y otros 2 puntos de vida por asalto, y deberá parar durante los 2 siguientes asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra la pantorrilla. Desgarras el músculo. El adversario lucha con un -20. La herida hace que pierda 2 puntos de vida por asalto, y le aturde durante 2 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra la parte inferior de la pierna. Si el adversario lleva armadura en la pierna, +3 puntos de daño y está aturdido durante el siguiente asalto. De lo contrario, está aturdido durante 2 asaltos y no puede parar durante 1.</t>
-  </si>
-  <si>
-    <t>Importante herida en la pierna. El adversario pierde 4 puntos de vida por asalto y está aturdido durante 3 asaltos. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe débil pero preciso contra el brazo del adversario. Pierde 1 punto de vida por asalto y está aturdido durante el siguiente. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe fuerte pero impreciso contra el brazo. El adversario pierde 2 puntos de vida por asalto y lucha con un -15 por culpa de la herida. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el antebrazo que corta músculos y tendones. El adversario lucha con un -25, pierde 2 puntos de vida por asalto y está aturdido durante 2 asaltos. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el brazo que desgarra músculos y tendones. El adversario lucha con un -25, pierde 2 puntos de vida por asalto y está aturdido durante 3 asaltos. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Astuto golpe contra el brazo que causa una herida al adversario. Este está aturdido y sin poder parar durante 2 asaltos, y pierde 3 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe a la cara del adversario. +4 puntos de daño, está aturdido durante el siguiente asalto y pierde 2 puntos de vida por asalto.</t>
-  </si>
-  <si>
-    <t>Golpe contra la cara. Si el adversario lleva armadura facial, +2 puntos de daño y deberá parar durante el siguiente asalto. De lo contrario, pierde 3 puntos de vida por asalto y está aturdido durante 3 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra la cabeza. Si el adversario lleva yelmo, +2 puntos de daño y queda aturdido el siguiente asalto. Si no, le queda una tremenda cicatriz, pierde 3 puntos de vida por asalto y actúa a -40.</t>
-  </si>
-  <si>
-    <t>Golpe acrobático contra la cara. Si el adversario lleva armadura facial, +5 puntos de daño. De lo contrario, le arrancas la nariz, pierde 3 puntos de vida por asalto, está aturdido durante 3 asaltos y a -40.</t>
-  </si>
-  <si>
-    <t>Golpe .contra la cabeza. Si el adversario lleva yelmo, +4 puntos de daño y queda aturdido el siguiente asalto. Si no, pierde 3 puntos de vida por asalto, actúa a -25 y permanece aturdido 9 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe rápido y certero. El adversario está aturdido durante 2 asaltos. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Desgarras el cuello del adversario. Pierde 2 puntos de vida por asalto y está aturdido durante 3 asaltos. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el hombro del adversario. Está aturdido y sin poder parar durante 2 asaltos. +6 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el brazo del arma. El adversario está desarmado y aturdido durante el siguiente asalto. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Herida en la parte superior del muslo, con desgarro muscular. El adversario lucha con un -40 y pierde 3 puntos de vida por asalto,  está aturdido durante 3 asaltos y no puede parar durante 1.</t>
-  </si>
-  <si>
-    <t>Saltas y aciertas en la cabeza del adversario. Si éste lleva yelmo, +3 puntos de daño y está aturdido durante el siguiente asalto. De lo contrario, lucha con un -30 y está aturdido durante 2 asaltos. La oreja ha sido desgarrada.</t>
-  </si>
-  <si>
-    <t>Golpe contra la muñeca. La herida le hace perder 2 puntos de vida por asalto. El adversario está aturdido durante 3 asaltos y no puede parar durante 1. +5 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra el cuello. El adversario está aturdido y sin poder parar durante 2 asaltos, perdiendo 2 puntos de vida por asalto. El adversario lucha con un -20. +3 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Un ataque en el momento apropiado desgarra el músculo del pulgar de la mano del arma. El adversario ha sido desarmado y está aturdido y sin poder parar durante 2 asaltos, lucha con un -50.</t>
-  </si>
-  <si>
-    <t>Un salto rapidísimo que derriba al adversario, lo desarma y lo deja inconsciente. +9 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Buen golpe contra la nariz del adversario. Si el adversario lleva un yelmo completo, está aturdido durante 2 asaltos. De lo contrario, su nariz queda destrozada pierde 3 puntos de vida por asalto y está aturdido durante 9 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe contra la cabeza. El adversario está ciego por la pérdida de sangre, pierde 3 puntos de vida por asalto, y está aturdido y sin poder parar durante 3 asaltos. Mientras esté sangrando, lucha con un -40.</t>
-  </si>
-  <si>
-    <t>Desgarras el tendón de Aquiles. El adversario ha sido derribado y está aturdido y sin poder parar durante 3 asaltos pierde 1 punto de vida por asalto y lucha con un -75.</t>
-  </si>
-  <si>
-    <t>Golpe contra los ojos del adversario. Si éste lleva un yelmo completo, queda cegado temporalmente y lucha con un -95 durante 1 semana. De lo contrario, pierde un ojo y no puede ver con el otro, y lucha con un -100.</t>
-  </si>
-  <si>
-    <t>Un golpe contra la cabeza derriba al adversario. Este sufre una conmoción general y muere después de 9 asaltos debido al 'shock' y a las hemorragias internas."</t>
-  </si>
-  <si>
-    <t>Golpe dirigido contra los ojos del adversario. Si lleva yelmo completo, está aturdido y sin poder parar durante 2 asaltos. De lo contrario, pierde un ojo lucha con un -75 y está aturdido y sin poder parar durante 3 asaltos.</t>
-  </si>
-  <si>
-    <t>El ataque desgarra la garganta y derriba al adversario. Está aturdido y sin poder parar durante 6 asaltos, pierde 3 puntos de vida por asalto y lucha con un -50.</t>
-  </si>
-  <si>
-    <t>Extraño ataque contra la región de la cabeza del adversario, lo que hace que se golpee con su propia arma. El adversario deberá hacer una ataque en la columna "E" de la tabla de aciertos críticos de aplastamiento.</t>
-  </si>
-  <si>
-    <t>Golpe dirigido contra los ojos del adversario. +10 puntos de daño. Queda aturdido e incapaz de parar durante 6 asaltos, lucha con un -95 y pierde 2 puntos de vida por asalto. Ceguera permanente.</t>
-  </si>
-  <si>
-    <t>Un increíble golpe en el cuello derriba al adversario, rompiendo venas y arterias, provocando una pérdida de 20 puntos de vida por asalto y la muerte tras 6 asaltos de inactividad.</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Criaturas pequeñas</t>
+    <t>+5 puntos de daño</t>
+  </si>
+  <si>
+    <t>+3 puntos de daño</t>
+  </si>
+  <si>
+    <t>+9 puntos de daño</t>
+  </si>
+  <si>
+    <t>+10 puntos de daño</t>
+  </si>
+  <si>
+    <t>+12 puntos de daño</t>
+  </si>
+  <si>
+    <t>+15 puntos de daño</t>
+  </si>
+  <si>
+    <t>+18 puntos de daño</t>
+  </si>
+  <si>
+    <t>+20 puntos de daño</t>
+  </si>
+  <si>
+    <t>+25 puntos de daño</t>
+  </si>
+  <si>
+    <t>+30 puntos de daño</t>
+  </si>
+  <si>
+    <t>Grandes criaturas</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>especial</t>
+  </si>
+  <si>
+    <t>+0 puntos de daño</t>
+  </si>
+  <si>
+    <t>+1 puntos de daño</t>
+  </si>
+  <si>
+    <t>+7 puntos de daño</t>
+  </si>
+  <si>
+    <t>+13 puntos de daño</t>
+  </si>
+  <si>
+    <t>El golpe atraviesa la boca del adversario, derribándole y haciendo que pemanezca en coma durante 1 mes. +30 puntos de daño</t>
+  </si>
+  <si>
+    <t>Golpe bien colocado contra la cabeza, destruyendo la cavidad cerebral del adversario, que cae al suelo y muere instantáneamente. Suma 10 a tu siguiente tirada</t>
+  </si>
+  <si>
+    <t>Herida leve. El adversario está aturdido durante 3 asaltos y pierde la iniciativa durante 6 asaltos. +12 puntos de daño</t>
+  </si>
+  <si>
+    <t>Fuerte golpe que hace que el adversario se tambalee. El adversario está aturdido durante 3 asaltos y pierde la iniciativa durante 6 asaltos. +15 puntos de daño</t>
+  </si>
+  <si>
+    <t>Fuerte golpe que aturde al adversario durante 3 asaltos. No puede parar durante 1 asalto. +25 puntos de daño</t>
+  </si>
+  <si>
+    <t>Golpe en la pierna. El adversario estña aturdido y sin poder parar durante 2 asaltos. +20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra la pierna que rompe el hueso. El adversario está aturdido y sin poder parar durante 2 asaltos aparitr de ahora luchará con un -30</t>
+  </si>
+  <si>
+    <t>Golpe terrible que aplasta el cuello del adversario y le destroza la columna vertebral. El adversario cae al suelo y muere después de 3 asaltos.</t>
+  </si>
+  <si>
+    <t>Un golpe espantoso que hace que la mandíbula del adversario penetre en su cerebro. El adverario muere instantáneamente. Suma 15 a tu siguiente tirada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golpe muy bueno que hace que una de las costillas del adversario se clave en su corazón. El adversario cae al suelo y muere después de 6 asaltos. </t>
+  </si>
+  <si>
+    <t>La arteria carótida y la vena yugular son seccionadas. El adversario cae al suelo y muere tras 3 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe muy fuerte. El adversario estña aturdido y sin poder parar durante 3 asaltos. +30 puntos de daño.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Golpe terrible; el adversario está aturdido y sin poder parar durante 5 asaltos. +35 puntos de daño.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golpe en un costado. El adversario está aturdido y sin poder parar durante 5 asaltos, luchará con un -20 a causal de la rotura de varias costillas. </t>
+  </si>
+  <si>
+    <t>Golpe en un costado que fragmenta varios huesos. El adversario está aturdido y sin poder parar durante 6 asaltos. Luchará con -25 a causa del dolor. +40 puntos de daño y lucha con un -35. +35 punos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario cae al suelo. Importante herida en el muslo que hace que pierda 10 puntos de vida por asalto y luche con -35. +35 puntos de daño</t>
+  </si>
+  <si>
+    <t>El adversario cae al suelo inconsciente. Los huesos rotos y la herida hacen que pierda 10puntos de vida por asalto. Cuando se recupere, el adversario luchará con -50.</t>
+  </si>
+  <si>
+    <t>El golpe ahce que el adversario esté en coma durante 3 meses, causándole además una parálisis permanente.+ 50 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe hace que el adversario retroceda 3m y se aplaste el cuello. La criatura muere después de 3 asaltos. + 50 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe hace que la vejiga del adversario explote, matándole en el acto</t>
+  </si>
+  <si>
+    <t>El golpe aplasta el cráneo del adversario que muere de inmediato</t>
+  </si>
+  <si>
+    <t>GM</t>
   </si>
 </sst>
 </file>
@@ -324,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -347,11 +212,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -361,6 +250,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,58 +574,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECB416-150D-45AA-AD15-5F5F9DD0A780}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="35.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -736,27 +623,18 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
@@ -765,27 +643,18 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -794,27 +663,18 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>16</v>
@@ -823,27 +683,18 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -852,27 +703,18 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>26</v>
@@ -881,27 +723,18 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>31</v>
@@ -910,27 +743,18 @@
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>36</v>
@@ -942,24 +766,15 @@
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>41</v>
@@ -968,27 +783,18 @@
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>46</v>
@@ -997,27 +803,18 @@
         <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>51</v>
@@ -1026,27 +823,18 @@
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>56</v>
@@ -1055,27 +843,18 @@
         <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>61</v>
@@ -1084,27 +863,18 @@
         <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
         <v>66</v>
@@ -1113,27 +883,18 @@
         <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>67</v>
@@ -1142,27 +903,18 @@
         <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <v>71</v>
@@ -1171,27 +923,18 @@
         <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>76</v>
@@ -1200,27 +943,18 @@
         <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
         <v>81</v>
@@ -1229,27 +963,18 @@
         <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
         <v>86</v>
@@ -1258,27 +983,18 @@
         <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
         <v>91</v>
@@ -1287,27 +1003,18 @@
         <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>96</v>
@@ -1316,27 +1023,18 @@
         <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
@@ -1345,19 +1043,110 @@
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
+        <v>101</v>
+      </c>
+      <c r="D24" s="5">
+        <v>150</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6">
+        <v>151</v>
+      </c>
+      <c r="D25" s="6">
+        <v>175</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5">
+        <v>176</v>
+      </c>
+      <c r="D26" s="5">
+        <v>200</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6">
+        <v>201</v>
+      </c>
+      <c r="D27" s="6">
+        <v>250</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="5">
+        <v>251</v>
+      </c>
+      <c r="D28" s="5">
+        <v>251</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/public/excel/criticos.xlsx
+++ b/backend/public/excel/criticos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neru\OneDrive\Escritorio\Tablas de criticos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neru\OneDrive\Escritorio\RolMaster\Tablas de criticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A488E928-2D52-4A33-B8ED-C40550787ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66D6EF4-A13C-4BAD-9F79-F272D0FCCD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6C323D6-314E-4F73-88FC-B8D502B63BBB}"/>
   </bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
+  <si>
+    <t>+1 punto de daño.</t>
+  </si>
   <si>
     <t>Start</t>
   </si>
@@ -33,134 +36,308 @@
     <t>End</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>+2 puntos de daño.</t>
+  </si>
+  <si>
+    <t>+3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>+4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>tipo</t>
   </si>
   <si>
     <t>simbolo</t>
   </si>
   <si>
-    <t>+5 puntos de daño</t>
-  </si>
-  <si>
-    <t>+3 puntos de daño</t>
-  </si>
-  <si>
-    <t>+9 puntos de daño</t>
-  </si>
-  <si>
-    <t>+10 puntos de daño</t>
-  </si>
-  <si>
-    <t>+12 puntos de daño</t>
-  </si>
-  <si>
-    <t>+15 puntos de daño</t>
-  </si>
-  <si>
-    <t>+18 puntos de daño</t>
-  </si>
-  <si>
-    <t>+20 puntos de daño</t>
-  </si>
-  <si>
-    <t>+25 puntos de daño</t>
-  </si>
-  <si>
-    <t>+30 puntos de daño</t>
-  </si>
-  <si>
-    <t>Grandes criaturas</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>especial</t>
-  </si>
-  <si>
-    <t>+0 puntos de daño</t>
-  </si>
-  <si>
-    <t>+1 puntos de daño</t>
-  </si>
-  <si>
-    <t>+7 puntos de daño</t>
-  </si>
-  <si>
-    <t>+13 puntos de daño</t>
-  </si>
-  <si>
-    <t>El golpe atraviesa la boca del adversario, derribándole y haciendo que pemanezca en coma durante 1 mes. +30 puntos de daño</t>
-  </si>
-  <si>
-    <t>Golpe bien colocado contra la cabeza, destruyendo la cavidad cerebral del adversario, que cae al suelo y muere instantáneamente. Suma 10 a tu siguiente tirada</t>
-  </si>
-  <si>
-    <t>Herida leve. El adversario está aturdido durante 3 asaltos y pierde la iniciativa durante 6 asaltos. +12 puntos de daño</t>
-  </si>
-  <si>
-    <t>Fuerte golpe que hace que el adversario se tambalee. El adversario está aturdido durante 3 asaltos y pierde la iniciativa durante 6 asaltos. +15 puntos de daño</t>
-  </si>
-  <si>
-    <t>Fuerte golpe que aturde al adversario durante 3 asaltos. No puede parar durante 1 asalto. +25 puntos de daño</t>
-  </si>
-  <si>
-    <t>Golpe en la pierna. El adversario estña aturdido y sin poder parar durante 2 asaltos. +20 puntos de daño.</t>
-  </si>
-  <si>
-    <t>Golpe contra la pierna que rompe el hueso. El adversario está aturdido y sin poder parar durante 2 asaltos aparitr de ahora luchará con un -30</t>
-  </si>
-  <si>
-    <t>Golpe terrible que aplasta el cuello del adversario y le destroza la columna vertebral. El adversario cae al suelo y muere después de 3 asaltos.</t>
-  </si>
-  <si>
-    <t>Un golpe espantoso que hace que la mandíbula del adversario penetre en su cerebro. El adverario muere instantáneamente. Suma 15 a tu siguiente tirada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golpe muy bueno que hace que una de las costillas del adversario se clave en su corazón. El adversario cae al suelo y muere después de 6 asaltos. </t>
-  </si>
-  <si>
-    <t>La arteria carótida y la vena yugular son seccionadas. El adversario cae al suelo y muere tras 3 asaltos.</t>
-  </si>
-  <si>
-    <t>Golpe muy fuerte. El adversario estña aturdido y sin poder parar durante 3 asaltos. +30 puntos de daño.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Golpe terrible; el adversario está aturdido y sin poder parar durante 5 asaltos. +35 puntos de daño.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golpe en un costado. El adversario está aturdido y sin poder parar durante 5 asaltos, luchará con un -20 a causal de la rotura de varias costillas. </t>
-  </si>
-  <si>
-    <t>Golpe en un costado que fragmenta varios huesos. El adversario está aturdido y sin poder parar durante 6 asaltos. Luchará con -25 a causa del dolor. +40 puntos de daño y lucha con un -35. +35 punos de daño.</t>
-  </si>
-  <si>
-    <t>El adversario cae al suelo. Importante herida en el muslo que hace que pierda 10 puntos de vida por asalto y luche con -35. +35 puntos de daño</t>
-  </si>
-  <si>
-    <t>El adversario cae al suelo inconsciente. Los huesos rotos y la herida hacen que pierda 10puntos de vida por asalto. Cuando se recupere, el adversario luchará con -50.</t>
-  </si>
-  <si>
-    <t>El golpe ahce que el adversario esté en coma durante 3 meses, causándole además una parálisis permanente.+ 50 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El golpe hace que el adversario retroceda 3m y se aplaste el cuello. La criatura muere después de 3 asaltos. + 50 puntos de daño.</t>
-  </si>
-  <si>
-    <t>El golpe hace que la vejiga del adversario explote, matándole en el acto</t>
-  </si>
-  <si>
-    <t>El golpe aplasta el cráneo del adversario que muere de inmediato</t>
-  </si>
-  <si>
-    <t>GM</t>
+    <t>El adversario pierde la iniciativa para el siguiente asalto. +4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa durante 2 asaltos. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Frio</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Brisa de aire frío. +0 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa para el siguiente asalto. Viento frío. +2 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa durante 1 asalto. +3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde ligeramente el equilibrio y pierde la iniciativa para el siguiente asalto. +4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe flojo. El adversario pierde la iniciativa para el siguiente asalto. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe frío. Si el adversario lleva puesto una armadura o una ropa que le proteja, pierde la iniciativa para el siguiente asalto. De no ser así, +6 puntos de daño y pierde la iniciativa durante 2 asaltos.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa para el siguiente asalto. Brisa muy fría. +3 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario pierde la iniciativa durante 2 asaltos. Viento muy frío. +4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe que hace perder el equilibrio al adversario. Deberá parar durante 1 asalto. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe moderado. El adversario debe parar durante 1 asalto. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe leve. El adversario pierde la iniciativa durante 2 asaltos. +4 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe acompañado de escarcha que obliga al adversario a perder la iniciativa durante 2 asaltos. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe moderado. El adversario debe parar durante 1 asalto. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe helado que causa al adversario una quemadura por congelación. Debe parar durante 1 asalto y con un -20 y pierde 1 punto de vida por asalto. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe muy frío. El adversario pierde el equilibrio y debe parar durante 2 asaltos con un -15. +8 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe muy frío. El adversario debe parar durante 1 asalto. +5 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe muy frío. El adversario debe parar durante 1 asalto y pierde la iniciativa durante 3. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Las ampollas hacen que el adversario pierda 1 punto de vida por asalto. Debe parar durante 2 asaltos. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 1 asalto. Pierde 2 puntos de vida por asalto y además lucha con un -5 por culpa de un 'shock' facial. +8 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe fuerte dirigido contra la parte inferior del cuerpo del adversario, que le aturde durante 1 asalto y destruye las protecciones de sus pies. Si los pies estaban desnudos, el adversario lucha con un -20 (por congelación).</t>
+  </si>
+  <si>
+    <t>Golpe moderado. El adversario debe parar durante 2 asaltos. +6 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Congelación leve. Pierde 2 puntos de vida por asalto. El adversario debe parar durante 2 asaltos. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe aturde al adversario durante 1 asalto. +8 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Congelación leve. El adversario lucha con un -10. Pierde 2 puntos de vida por asalto. Está aturdido durante 1 asalto. +9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en forma de torbellino que hace que el adversario dé vueltas sobre si mismo. + 10 puntos de daño y está aturdido durante 1 asalto. Su arma cae al suelo.</t>
+  </si>
+  <si>
+    <t>Golpe de desequilibrio. El adversario está aturdido durante 1 asalto. +7 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe fuerte pero desviado que aturde al adversario durante 1 asalto. Pierde 3 puntos de vida por asalto debido a las congelaciones sufridas en la muñeca que aguanta el escudo. +8 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe fuerte pero dirigido contra la parte inferior del cuerpo. El adversario está aturdido durante 2 asaltos. Si no lleva armadura en las piernas, pierde 5 puntos de vida por asalto por 'shock' y dolor.</t>
+  </si>
+  <si>
+    <t>Golpe contra un costado que hace que el adversario retroceda 1 '5 metros. Las ampollas creadas le hacen perder 3 puntos de vida por asalto y estar aturdido durante 2 asaltos. +10 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Fuerte golpe lateral. El adversario está aturdido y sin poder parar durante 1 asalto y el dolor entumecedor le hace perder 4 puntos de vida por asalto. +11 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe fuerte pero difuso. El adversario está aturdido durante 2 asaltos. +8 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido durante 2 asaltos y toda la madera en la espalda del adversario que estuviese expuesta al exterior se vuelve inútil y quebradiza. Pierde 2 puntos de vida por asalto. +9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe de congelación contra la espalda que seca toda clase de materia orgánica que el adversario tuviese en su espalda expuesto al exterior. Está aturdido y sin poder parar durante 1 asalto. +9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe contra el brazo del adversario que aguanta el escudo. Congelación. El adversario está aturdido y sin poder parar durante 1 asalto, pierde 3 puntos de vida por asalto y lucha con un -15.</t>
+  </si>
+  <si>
+    <t>Golpe contra el brazo del adversario que aguanta el arma. El adversario está aturdido y sin poder parar durante 1 asalto, pierde 4 puntos de vida por asalto y lucha con un -20.</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido y sin poder parar durante 1 asalto. +9 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la pierna. Congelación. El adversario está aturdido y sin poder parar durante 1 asalto, lucha con un -5 y pierde 3 puntos de vida por asalto. +10 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la pierna. Congelación. Si el adversario lleva botas o grebas de cuero, éstas son destruidas. Está aturdido durante 4 asaltos. +11 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo del adversario que aguanta el escudo. Si lleva un escudo, +20 puntos de daño. Si no lleva escudo, el brazo queda inutilizado por culpa de los daños causados a los músculos y nervios y el adversario está aturdido durante 5 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo del adversario que aguanta el arma. Deja caer al suelo lo que tuviese en esa mano. El adversario está aturdido durante 3 asaltos y lucha con un -30. +13 puntos de daño. Congelación.</t>
+  </si>
+  <si>
+    <t>El golpe hace que el adversario deje caer al suelo todo lo que tuviese en sus manos. +10 puntos de daño. Está aturdido y sin poder parar durante 3 asaltos. El golpe le ha dado en el pecho.</t>
+  </si>
+  <si>
+    <t>El adversario está aturdido y sin poder parar durante 4 asaltos. Si no lleva armadura ni capa que le proteja, pierde 5 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El adversario cae al suelo y está aturdido durante 6 asaltos. Si lleva armadura en las muñecas, pierde 3 puntos de vida por asalto. De no tenerla, lucha con un -25 y pierde 6 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>Golpe en el cuello. Si el adversario lleva armadura en el cuello, pierde 4 puntos de vida por asalto y está aturdido durante 6 asaltos. De no tenerla, lucha con un -50, pierde 5 puntos de vida por asalto y está aturdido durante 3 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe en el hombro, que queda inutilizado por culpa de los daños causados a los nervios y cartílagos. Si el adversario no lleva yelmo, está inconsciente durante 1 día y pierde 6 puntos de vida por asalto. +15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido y sin poder parar durante 1 asalto. Congelación. El adversario lucha con un -5. +10 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. Congelación. El adversario está aturdido durante 2 asaltos y no puede parar durante 1. Lucha con un -10. +11 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido durante 2 asaltos y no puede parar durante 1. Lucha con un -15, Congelación. +12 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido durante 3 asaltos y no puede parar durante 1. Lucha con un -20. Congelación. +13 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo del adversario que aguanta el escudo. Si lleva escudo, el adversario cae al suelo y pierde 2 puntos de vida por asalto. De no tenerlo, hay una congelación masiva del brazo, que queda inutilizado y está aturdido durante 6 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe de desequilibrio. El adversario está aturdido durante 2 asaltos. El dolor y el 'shock' hacen que el adversario luche con un -10. +11 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el costado del escudo del adversario. El dolor y el 'shock' hacen que pierda 3 puntos de vida por asalto. El adversario está aturdido y sin poder parar durante 2 asaltos. +12 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en un costado del adversario que causa 'shock' y congelación. El adversario lucha con un -20, pierde 3 puntos de vida por asalto y está aturdido y sin poder parar durante 2 asaltos.</t>
+  </si>
+  <si>
+    <t>El golpe congela el hombro del brazo con el que el adversario aguanta el escudo. El brazo queda inutilizado y el adversario está aturdido durante 2 asaltos. + 14 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el brazo del adversario que aguanta el arma. La congelación y el entumecimiento hacen que el brazo quede inutilizado, aturdiendo al adversario durante 3 asaltos. +15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. El adversario está aturdido durante 2 asaltos y no puede parar durante 1. +12 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. El adversario pierde 3 puntos de vida por asalto, lucha con un -15 y está aturdido durante 4 asaltos. +13 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. El adversario pierde 4 puntos de vida por asalto. Si lleva armadura en el pecho, está aturdido durante 3 asaltos. De no llevarla, cae al suelo y lucha con un -25.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho, la congelación causada hace que el adversario luche con un -25. Está aturdido y sin poder parar durante 3 asaltos. +15 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el pecho. El adversario cae al suelo y deja caer todo lo que tenga en las manos. Está aturdido durante 12 asaltos por 'shock' y daños nerviosos. Lucha con un -30.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido y sin poder parar durante 2 asaltos. +13 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda. El adversario está aturdido y sin poder parar durante 3 asaltos y pierde 4 puntos de vida por asalto. +14 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el muslo, que le rompe el hueso y causa congelación. El adversario lucha con un -40, pierde 5 puntos de vida por asalto y está aturdido durante 6 asaltos.</t>
+  </si>
+  <si>
+    <t>El golpe congela ambas manos y el adversario pierde el uso de sus dos brazos. Está aturdido durante 9 asaltos y pierde 6 puntos de vida por asalto.</t>
+  </si>
+  <si>
+    <t>El golpe congela la garganta y los pulmones del adversario, que cae al suelo y muere después de 12 asaltos. +17 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en las piernas. El adversario cae al suelo. Si lleva armadura en las piernas,  está aturdido durante 2 asaltos. De no llevarla, el adversario pierde el uso del pie izquierdo y lucha con un -70 (por congelación).</t>
+  </si>
+  <si>
+    <t>Golpe en las piernas. El adversario cae al suelo. Si lleva armadura en las piernas, está aturdido durante 3 asaltos. De no llevarla, el adversario pierde el uso de uno de sus pies y lucha con un -85 (por congelación).</t>
+  </si>
+  <si>
+    <t>Golpe dirigido contra la parte inferior de las piernas, que destruye las protecciones de los pies, congela los dos pies del adversario y le aturde durante 9 asaltos. Pierde 6 puntos de vida por asalto y lucha con un -80.</t>
+  </si>
+  <si>
+    <t>Golpe dirigido contra la parte superior del pecho, que derriba al adversario. Si lleva armadura en el pecho, está inconsciente. De no llevarla, se muere después de 12 asaltos por enfriamiento del corazón.</t>
+  </si>
+  <si>
+    <t>Golpe en la espalda que congela la columna vertebral y la rompe en mil pedazos. El adversario cae al suelo y muere después de no hacer nada durante 9 asaltos. Su cuello se rompe y sufre un 'shock' generalizado.</t>
+  </si>
+  <si>
+    <t>Golpe en la cabeza que derriba al adversario. Si lleva yelmo,  está aturdido durante 3 asaltos. De no llevar yelmo,  está aturdido durante 6 asaltos, lucha con un -50 y pierde las dos orejas.</t>
+  </si>
+  <si>
+    <t>Golpe en la cadera del adversario, que se rompe en pedazos. El adversario está aturdido y sin poder parar durante 3 asaltos y lucha con un -75. +17 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el abdomen. Si el adversario lleva armadura en el abdomen, cae al suelo inconsciente y +17 puntos de daño. De no llevarla, el adversario muere después de 9 asaltos por lesiones causadas a los órganos internos.</t>
+  </si>
+  <si>
+    <t>La sangre del adversario se congela por completo. Muere después de no hacer nada durante 9 asaltos. +18 puntos de daño.</t>
+  </si>
+  <si>
+    <t>La mitad inferior del cuerpo del adversario se congela por completo. Muere después de no hacer nada durante 6 asaltos. +19 puntos de daño.</t>
+  </si>
+  <si>
+    <t>Golpe en el cuello. Si el adversario lleva armadura en el cuello,  está aturdido durante 9 asaltos. De no llevarla,  el adversario pierde los labios,  no puede hablar durante 2 semanas y cae al suelo inconsciente.</t>
+  </si>
+  <si>
+    <t>Golpe en el cuello y la garganta. Si el adversario lleva armadura en el cuello, cae al suelo inconsciente. De no llevarla, el cuello del adversario se congela y se rompe en pedazos y él muere después de no hacer nada durante 9 asaltos.</t>
+  </si>
+  <si>
+    <t>Golpe en un costado, que congela y rompe en pedazos la pelvis del adversario. Muere después de 6 asaltos por 'shock' y lesiones nerviosas. +18 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El corazón y los pulmones del adversario se congelan de repente. Muere por 'shock' y asfixia después de no hacer nada durante 6 asaltos. +19 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario se convierte en una estatua inmóvil y sin vida. Suma +10 a tu siguiente tirada. +20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El adversario entra en coma durante 1 mes y pierde la nariz como consecuencia del 'shock' y congelación grave. +21 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El golpe congela y reseca la cabeza del adversario, que muere después de 1 asalto. Su cerebro y su cráneo son ahora quebradizos y están muertos. Suma 5 a tu siguiente tirada.</t>
+  </si>
+  <si>
+    <t>Golpe en la cabeza que destruye los ojos del adversario. Queda en coma durante 2 semanas y está paralizado del cuello para abajo de forma permanente.</t>
+  </si>
+  <si>
+    <t>Golpe demoledor que rompe en pedazos el pecho del adversario y congela sus fluidos corporales. Muere después de 2 asaltos. +20 puntos de daño.</t>
+  </si>
+  <si>
+    <t>El cuerpo del adversario se congela por completo y luego se rompe en mil pedazos después de caerse al suelo 6 metros detrás del lugar en donde recibió el impacto del ataque.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +345,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +372,20 @@
         <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
+        <bgColor rgb="FFE6B8B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FFF2DCDB"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,35 +408,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -251,13 +423,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -574,47 +743,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECB416-150D-45AA-AD15-5F5F9DD0A780}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -622,19 +802,28 @@
       <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
@@ -642,19 +831,28 @@
       <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -662,19 +860,28 @@
       <c r="D4" s="1">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>16</v>
@@ -682,19 +889,28 @@
       <c r="D5" s="2">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -702,19 +918,28 @@
       <c r="D6" s="1">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>26</v>
@@ -722,19 +947,28 @@
       <c r="D7" s="2">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>31</v>
@@ -742,19 +976,28 @@
       <c r="D8" s="1">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>36</v>
@@ -762,19 +1005,28 @@
       <c r="D9" s="2">
         <v>40</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>41</v>
@@ -782,19 +1034,28 @@
       <c r="D10" s="1">
         <v>45</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>46</v>
@@ -802,19 +1063,28 @@
       <c r="D11" s="2">
         <v>50</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>51</v>
@@ -822,19 +1092,28 @@
       <c r="D12" s="1">
         <v>55</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>56</v>
@@ -842,19 +1121,28 @@
       <c r="D13" s="2">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>61</v>
@@ -862,19 +1150,28 @@
       <c r="D14" s="1">
         <v>65</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>66</v>
@@ -882,19 +1179,28 @@
       <c r="D15" s="2">
         <v>66</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>67</v>
@@ -902,19 +1208,28 @@
       <c r="D16" s="1">
         <v>70</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
         <v>71</v>
@@ -922,19 +1237,28 @@
       <c r="D17" s="2">
         <v>75</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>76</v>
@@ -942,19 +1266,28 @@
       <c r="D18" s="1">
         <v>80</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>81</v>
@@ -962,19 +1295,28 @@
       <c r="D19" s="2">
         <v>85</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
         <v>86</v>
@@ -982,19 +1324,28 @@
       <c r="D20" s="1">
         <v>90</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
         <v>91</v>
@@ -1002,19 +1353,28 @@
       <c r="D21" s="2">
         <v>95</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1">
         <v>96</v>
@@ -1022,19 +1382,28 @@
       <c r="D22" s="1">
         <v>99</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
@@ -1042,111 +1411,20 @@
       <c r="D23" s="2">
         <v>100</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="E23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="D24" s="5">
-        <v>150</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="6">
-        <v>151</v>
-      </c>
-      <c r="D25" s="6">
-        <v>175</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="5">
-        <v>176</v>
-      </c>
-      <c r="D26" s="5">
-        <v>200</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="6">
-        <v>201</v>
-      </c>
-      <c r="D27" s="6">
-        <v>250</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="5">
-        <v>251</v>
-      </c>
-      <c r="D28" s="5">
-        <v>251</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
